--- a/reports/ember-pcb.nets.xlsx
+++ b/reports/ember-pcb.nets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akashlevy/Documents/ember-pcb/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{428A4D9B-A054-794A-8357-447A90FC5F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E82923A3-158F-3148-A32E-0B1D6BE449F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940"/>
   </bookViews>
@@ -16,62 +16,51 @@
     <sheet name="ember-pcb.nets" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">('ember-pcb.nets'!$K$2:$K$7,'ember-pcb.nets'!$K$10:$K$15,'ember-pcb.nets'!$K$30:$K$176,'ember-pcb.nets'!$K$178)</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">('ember-pcb.nets'!$K$2:$K$7,'ember-pcb.nets'!$K$10:$K$15,'ember-pcb.nets'!$K$30:$K$176,'ember-pcb.nets'!$K$178)</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">('ember-pcb.nets'!$K$2:$K$7,'ember-pcb.nets'!$K$10:$K$15,'ember-pcb.nets'!$K$30:$K$176,'ember-pcb.nets'!$K$178)</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">('ember-pcb.nets'!$K$2:$K$7,'ember-pcb.nets'!$K$10:$K$16,'ember-pcb.nets'!$K$30:$K$176,'ember-pcb.nets'!$K$178)</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">('ember-pcb.nets'!$K$2:$K$7,'ember-pcb.nets'!$K$9)</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">('ember-pcb.nets'!$G$2:$G$7,'ember-pcb.nets'!$G$10:$G$15,'ember-pcb.nets'!$G$30:$G$176,'ember-pcb.nets'!$G$178)</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">('ember-pcb.nets'!$K$2:$K$8,'ember-pcb.nets'!$K$11:$K$16,'ember-pcb.nets'!$K$31:$K$177)</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">('ember-pcb.nets'!$K$2:$K$8,'ember-pcb.nets'!$K$11:$K$16,'ember-pcb.nets'!$K$31:$K$177)</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">('ember-pcb.nets'!$K$2:$K$8,'ember-pcb.nets'!$K$11:$K$16,'ember-pcb.nets'!$K$31:$K$177)</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">('ember-pcb.nets'!$K$2:$K$8,'ember-pcb.nets'!$K$11:$K$16,'ember-pcb.nets'!$K$31:$K$177)</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="188">
   <si>
     <t>NetCode</t>
   </si>
   <si>
-    <t>NetName</t>
-  </si>
-  <si>
-    <t>PadCount</t>
-  </si>
-  <si>
-    <t>ViaCount</t>
-  </si>
-  <si>
-    <t>ViaLength</t>
-  </si>
-  <si>
-    <t>ViaLengthUnits</t>
-  </si>
-  <si>
-    <t>TrackLength</t>
-  </si>
-  <si>
-    <t>TrackLengthUnits</t>
-  </si>
-  <si>
-    <t>DieLength</t>
-  </si>
-  <si>
-    <t>DieLengthUnits</t>
-  </si>
-  <si>
-    <t>NetLength</t>
-  </si>
-  <si>
-    <t>NetLengthUnits</t>
+    <t>Net Name</t>
+  </si>
+  <si>
+    <t>Pad Count</t>
+  </si>
+  <si>
+    <t>Via Count</t>
+  </si>
+  <si>
+    <t>Via Length</t>
+  </si>
+  <si>
+    <t>Track Length</t>
+  </si>
+  <si>
+    <t>Die Length</t>
+  </si>
+  <si>
+    <t>Net Length</t>
+  </si>
+  <si>
+    <t>/rram_busy</t>
+  </si>
+  <si>
+    <t>mils</t>
   </si>
   <si>
     <t>/sclk</t>
   </si>
   <si>
-    <t>mils</t>
-  </si>
-  <si>
     <t>/sc</t>
   </si>
   <si>
@@ -598,6 +587,9 @@
   </si>
   <si>
     <t>/sa_clk</t>
+  </si>
+  <si>
+    <t>/vadj</t>
   </si>
 </sst>
 </file>
@@ -740,7 +732,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -920,12 +912,6 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1087,10 +1073,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1154,7 +1138,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1162,34 +1146,50 @@
     <cx:title pos="t" align="ctr" overlay="0">
       <cx:tx>
         <cx:txData>
-          <cx:v>Signal Net Length Distribution (mils)</cx:v>
+          <cx:v>Chart Title</cx:v>
         </cx:txData>
       </cx:tx>
       <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1" compatLnSpc="0"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:sysClr>
               </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
               <a:latin typeface="Calibri" panose="020F0502020204030204"/>
             </a:rPr>
-            <a:t>Signal Net Length Distribution (mils)</a:t>
+            <a:t>Chart Title</a:t>
           </a:r>
         </a:p>
       </cx:txPr>
     </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
-        <cx:series layoutId="clusteredColumn" uniqueId="{E24432A3-80DB-424D-AEF9-ECEA8B27FBA2}">
+        <cx:series layoutId="clusteredColumn" uniqueId="{46768D81-D6CC-2647-BF5A-D5F30323D4D7}">
           <cx:dataId val="0"/>
           <cx:layoutPr>
             <cx:binning intervalClosed="r">
@@ -1199,7 +1199,7 @@
         </cx:series>
       </cx:plotAreaRegion>
       <cx:axis id="0">
-        <cx:catScaling gapWidth="0"/>
+        <cx:catScaling/>
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
@@ -1253,7 +1253,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1264,7 +1264,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -1287,7 +1287,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -1310,7 +1310,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -1318,11 +1318,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -1347,14 +1347,14 @@
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -1369,7 +1369,7 @@
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -1386,7 +1386,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -1401,8 +1401,10 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -1415,7 +1417,7 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
@@ -1425,13 +1427,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1450,16 +1452,18 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
@@ -1530,6 +1534,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -1561,8 +1571,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1617,7 +1627,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
   <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -1645,18 +1655,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
     <cs:lnRef idx="0"/>
@@ -1666,9 +1665,12 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -1684,7 +1686,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1700,7 +1702,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1714,7 +1716,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -1747,7 +1749,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -1756,6 +1758,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1765,24 +1773,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="4" name="Chart 3">
+            <xdr:cNvPr id="2" name="Chart 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE884452-930B-3D43-8EC9-1EAA2BAEF6CA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6D9FBBD-B901-F57E-8C90-607FC928F196}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1809,7 +1817,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10464800" y="1047750"/>
+              <a:off x="10420350" y="1454150"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2140,10 +2148,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L178"/>
+  <dimension ref="A1:L180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2164,186 +2172,174 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>113.62</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1">
-        <v>3814.28</v>
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>3937.01</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="1">
-        <v>3927.9</v>
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>3937.01</v>
       </c>
       <c r="L2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>9.1199999999999992</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1">
-        <v>3927.46</v>
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>3937.02</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="1">
-        <v>3936.58</v>
+        <v>9</v>
+      </c>
+      <c r="K3">
+        <v>3937.02</v>
       </c>
       <c r="L3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>113.62</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="1">
-        <v>3820.65</v>
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>3937.28</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="1">
-        <v>3934.27</v>
+        <v>9</v>
+      </c>
+      <c r="K4">
+        <v>3937.28</v>
       </c>
       <c r="L4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>9.1199999999999992</v>
+        <v>104.49</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="1">
-        <v>3919.43</v>
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>3832.61</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="1">
-        <v>3928.55</v>
+        <v>9</v>
+      </c>
+      <c r="K5">
+        <v>3937.1</v>
       </c>
       <c r="L5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -2352,112 +2348,112 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>52.25</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3832.52</v>
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>3919.43</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="1">
-        <v>3884.77</v>
+        <v>9</v>
+      </c>
+      <c r="K6">
+        <v>3928.55</v>
       </c>
       <c r="L6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>52.25</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3833.52</v>
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>3937.02</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="1">
-        <v>3885.76</v>
+        <v>9</v>
+      </c>
+      <c r="K7">
+        <v>3937.02</v>
       </c>
       <c r="L7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>61.37</v>
+        <v>52.25</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="2">
-        <v>3539.87</v>
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>3833.52</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K8">
-        <v>3601.24</v>
+        <v>3885.76</v>
       </c>
       <c r="L8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -2469,71 +2465,71 @@
         <v>61.37</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="2">
-        <v>3217.64</v>
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>3539.87</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K9">
-        <v>3279.01</v>
+        <v>3601.24</v>
       </c>
       <c r="L9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10">
-        <v>52.25</v>
+        <v>61.37</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="1">
-        <v>3833.21</v>
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>3217.64</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="1">
-        <v>3885.46</v>
+        <v>9</v>
+      </c>
+      <c r="K10">
+        <v>3279.01</v>
       </c>
       <c r="L10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -2545,33 +2541,33 @@
         <v>52.25</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="1">
-        <v>3800.8</v>
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>3833.21</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="1">
-        <v>3853.05</v>
+        <v>9</v>
+      </c>
+      <c r="K11">
+        <v>3885.46</v>
       </c>
       <c r="L11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -2583,33 +2579,33 @@
         <v>52.25</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="1">
-        <v>3832.61</v>
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>3832.71</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" s="1">
-        <v>3884.86</v>
+        <v>9</v>
+      </c>
+      <c r="K12">
+        <v>3884.96</v>
       </c>
       <c r="L12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -2618,36 +2614,36 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>9.1199999999999992</v>
+        <v>52.25</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="1">
-        <v>3927.91</v>
+        <v>9</v>
+      </c>
+      <c r="G13">
+        <v>3832.61</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="1">
-        <v>3937.03</v>
+        <v>9</v>
+      </c>
+      <c r="K13">
+        <v>3884.86</v>
       </c>
       <c r="L13" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -2659,33 +2655,33 @@
         <v>9.1199999999999992</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="1">
-        <v>3918.77</v>
+        <v>9</v>
+      </c>
+      <c r="G14">
+        <v>3927.91</v>
       </c>
       <c r="H14" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>13</v>
-      </c>
-      <c r="K14" s="1">
-        <v>3927.9</v>
+        <v>9</v>
+      </c>
+      <c r="K14">
+        <v>3937.03</v>
       </c>
       <c r="L14" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -2694,115 +2690,115 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>52.25</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="1">
-        <v>3832.92</v>
+        <v>9</v>
+      </c>
+      <c r="G15">
+        <v>3918.77</v>
       </c>
       <c r="H15" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="1">
-        <v>3885.17</v>
+        <v>9</v>
+      </c>
+      <c r="K15">
+        <v>3927.9</v>
       </c>
       <c r="L15" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>245.48</v>
+        <v>52.25</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G16">
-        <v>2419.02</v>
+        <v>3832.92</v>
       </c>
       <c r="H16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K16">
-        <v>2664.5</v>
+        <v>3885.17</v>
       </c>
       <c r="L16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C17">
         <v>9</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>245.48</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2419.02</v>
       </c>
       <c r="H17" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>2664.5</v>
       </c>
       <c r="L17" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C18">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2811,36 +2807,36 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C19">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -2849,36 +2845,36 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -2887,112 +2883,112 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>306.85000000000002</v>
+        <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G21">
-        <v>3080.75</v>
+        <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K21">
-        <v>3387.6</v>
+        <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C22">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>245.48</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>2755.67</v>
       </c>
       <c r="H22" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>3001.15</v>
       </c>
       <c r="L22" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C23">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -3001,33 +2997,33 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C24">
         <v>13</v>
@@ -3039,36 +3035,36 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -3077,33 +3073,33 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G25">
-        <v>2380.9499999999998</v>
+        <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K25">
-        <v>2380.9499999999998</v>
+        <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -3115,36 +3111,36 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G26">
-        <v>2919.74</v>
+        <v>2380.9499999999998</v>
       </c>
       <c r="H26" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K26">
-        <v>2919.74</v>
+        <v>2380.9499999999998</v>
       </c>
       <c r="L26" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -3153,36 +3149,36 @@
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G27">
-        <v>2627.07</v>
+        <v>5710.48</v>
       </c>
       <c r="H27" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K27">
-        <v>2627.07</v>
+        <v>5710.48</v>
       </c>
       <c r="L27" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -3191,33 +3187,33 @@
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G28">
-        <v>5828.94</v>
+        <v>4810.7299999999996</v>
       </c>
       <c r="H28" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K28">
-        <v>5828.94</v>
+        <v>4810.7299999999996</v>
       </c>
       <c r="L28" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -3229,71 +3225,71 @@
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G29">
-        <v>5487.4</v>
+        <v>5828.94</v>
       </c>
       <c r="H29" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K29">
-        <v>5487.4</v>
+        <v>5828.94</v>
       </c>
       <c r="L29" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>285</v>
+        <v>123</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>52.25</v>
+        <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="1">
-        <v>3884.76</v>
+        <v>9</v>
+      </c>
+      <c r="G30">
+        <v>5487.4</v>
       </c>
       <c r="H30" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>13</v>
-      </c>
-      <c r="K30" s="1">
-        <v>3937.01</v>
+        <v>9</v>
+      </c>
+      <c r="K30">
+        <v>5487.4</v>
       </c>
       <c r="L30" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C31">
         <v>2</v>
@@ -3302,36 +3298,36 @@
         <v>1</v>
       </c>
       <c r="E31">
-        <v>9.1199999999999992</v>
+        <v>52.25</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="1">
-        <v>3919.18</v>
+        <v>9</v>
+      </c>
+      <c r="G31">
+        <v>3884.76</v>
       </c>
       <c r="H31" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>13</v>
-      </c>
-      <c r="K31" s="1">
-        <v>3928.31</v>
+        <v>9</v>
+      </c>
+      <c r="K31">
+        <v>3937.01</v>
       </c>
       <c r="L31" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -3343,33 +3339,33 @@
         <v>9.1199999999999992</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="1">
-        <v>3927.94</v>
+        <v>9</v>
+      </c>
+      <c r="G32">
+        <v>3919.18</v>
       </c>
       <c r="H32" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>13</v>
-      </c>
-      <c r="K32" s="1">
-        <v>3937.06</v>
+        <v>9</v>
+      </c>
+      <c r="K32">
+        <v>3928.31</v>
       </c>
       <c r="L32" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -3378,36 +3374,36 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <v>52.25</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="1">
-        <v>3832.53</v>
+        <v>9</v>
+      </c>
+      <c r="G33">
+        <v>3927.94</v>
       </c>
       <c r="H33" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>13</v>
-      </c>
-      <c r="K33" s="1">
-        <v>3884.78</v>
+        <v>9</v>
+      </c>
+      <c r="K33">
+        <v>3937.06</v>
       </c>
       <c r="L33" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -3419,33 +3415,33 @@
         <v>52.25</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="1">
-        <v>3887.04</v>
+        <v>9</v>
+      </c>
+      <c r="G34">
+        <v>3832.53</v>
       </c>
       <c r="H34" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>13</v>
-      </c>
-      <c r="K34" s="1">
-        <v>3939.29</v>
+        <v>9</v>
+      </c>
+      <c r="K34">
+        <v>3884.78</v>
       </c>
       <c r="L34" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -3457,33 +3453,33 @@
         <v>52.25</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" s="1">
-        <v>3884.77</v>
+        <v>9</v>
+      </c>
+      <c r="G35">
+        <v>3887.04</v>
       </c>
       <c r="H35" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>13</v>
-      </c>
-      <c r="K35" s="1">
-        <v>3937.02</v>
+        <v>9</v>
+      </c>
+      <c r="K35">
+        <v>3939.29</v>
       </c>
       <c r="L35" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -3492,36 +3488,36 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>9.1199999999999992</v>
+        <v>52.25</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="1">
-        <v>3928</v>
+        <v>9</v>
+      </c>
+      <c r="G36">
+        <v>3884.77</v>
       </c>
       <c r="H36" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>13</v>
-      </c>
-      <c r="K36" s="1">
-        <v>3937.12</v>
+        <v>9</v>
+      </c>
+      <c r="K36">
+        <v>3937.02</v>
       </c>
       <c r="L36" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -3533,33 +3529,33 @@
         <v>9.1199999999999992</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="1">
-        <v>3929.52</v>
+        <v>9</v>
+      </c>
+      <c r="G37">
+        <v>3928</v>
       </c>
       <c r="H37" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>13</v>
-      </c>
-      <c r="K37" s="1">
-        <v>3938.64</v>
+        <v>9</v>
+      </c>
+      <c r="K37">
+        <v>3937.12</v>
       </c>
       <c r="L37" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -3568,36 +3564,36 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>52.25</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" s="1">
-        <v>3885.1</v>
+        <v>9</v>
+      </c>
+      <c r="G38">
+        <v>3929.52</v>
       </c>
       <c r="H38" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>13</v>
-      </c>
-      <c r="K38" s="1">
-        <v>3937.35</v>
+        <v>9</v>
+      </c>
+      <c r="K38">
+        <v>3938.64</v>
       </c>
       <c r="L38" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C39">
         <v>2</v>
@@ -3609,33 +3605,33 @@
         <v>52.25</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="1">
-        <v>3884.75</v>
+        <v>9</v>
+      </c>
+      <c r="G39">
+        <v>3885.1</v>
       </c>
       <c r="H39" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>13</v>
-      </c>
-      <c r="K39" s="1">
-        <v>3937</v>
+        <v>9</v>
+      </c>
+      <c r="K39">
+        <v>3937.35</v>
       </c>
       <c r="L39" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C40">
         <v>2</v>
@@ -3644,36 +3640,36 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <v>9.1199999999999992</v>
+        <v>52.25</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="1">
-        <v>3918.77</v>
+        <v>9</v>
+      </c>
+      <c r="G40">
+        <v>3884.75</v>
       </c>
       <c r="H40" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>13</v>
-      </c>
-      <c r="K40" s="1">
-        <v>3927.9</v>
+        <v>9</v>
+      </c>
+      <c r="K40">
+        <v>3937</v>
       </c>
       <c r="L40" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C41">
         <v>2</v>
@@ -3682,36 +3678,36 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <v>52.25</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" s="1">
-        <v>3884.91</v>
+        <v>9</v>
+      </c>
+      <c r="G41">
+        <v>3918.77</v>
       </c>
       <c r="H41" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>13</v>
-      </c>
-      <c r="K41" s="1">
-        <v>3937.16</v>
+        <v>9</v>
+      </c>
+      <c r="K41">
+        <v>3927.9</v>
       </c>
       <c r="L41" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C42">
         <v>2</v>
@@ -3723,33 +3719,33 @@
         <v>52.25</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" s="1">
-        <v>3884.74</v>
+        <v>9</v>
+      </c>
+      <c r="G42">
+        <v>3884.91</v>
       </c>
       <c r="H42" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>13</v>
-      </c>
-      <c r="K42" s="1">
-        <v>3936.99</v>
+        <v>9</v>
+      </c>
+      <c r="K42">
+        <v>3937.16</v>
       </c>
       <c r="L42" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C43">
         <v>2</v>
@@ -3758,36 +3754,36 @@
         <v>1</v>
       </c>
       <c r="E43">
-        <v>9.1199999999999992</v>
+        <v>52.25</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" s="1">
-        <v>3920.35</v>
+        <v>9</v>
+      </c>
+      <c r="G43">
+        <v>3884.74</v>
       </c>
       <c r="H43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>13</v>
-      </c>
-      <c r="K43" s="1">
-        <v>3929.47</v>
+        <v>9</v>
+      </c>
+      <c r="K43">
+        <v>3936.99</v>
       </c>
       <c r="L43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C44">
         <v>2</v>
@@ -3799,33 +3795,33 @@
         <v>9.1199999999999992</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" s="1">
-        <v>3889.48</v>
+        <v>9</v>
+      </c>
+      <c r="G44">
+        <v>3920.35</v>
       </c>
       <c r="H44" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>13</v>
-      </c>
-      <c r="K44" s="1">
-        <v>3898.6</v>
+        <v>9</v>
+      </c>
+      <c r="K44">
+        <v>3929.47</v>
       </c>
       <c r="L44" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -3837,33 +3833,33 @@
         <v>9.1199999999999992</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" s="1">
-        <v>3927.87</v>
+        <v>9</v>
+      </c>
+      <c r="G45">
+        <v>3889.48</v>
       </c>
       <c r="H45" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>13</v>
-      </c>
-      <c r="K45" s="1">
-        <v>3936.99</v>
+        <v>9</v>
+      </c>
+      <c r="K45">
+        <v>3898.6</v>
       </c>
       <c r="L45" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -3872,36 +3868,36 @@
         <v>1</v>
       </c>
       <c r="E46">
-        <v>52.25</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" s="1">
-        <v>3885.18</v>
+        <v>9</v>
+      </c>
+      <c r="G46">
+        <v>3927.87</v>
       </c>
       <c r="H46" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>13</v>
-      </c>
-      <c r="K46" s="1">
-        <v>3937.43</v>
+        <v>9</v>
+      </c>
+      <c r="K46">
+        <v>3936.99</v>
       </c>
       <c r="L46" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -3910,74 +3906,74 @@
         <v>1</v>
       </c>
       <c r="E47">
-        <v>9.1199999999999992</v>
+        <v>52.25</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" s="1">
-        <v>3928.12</v>
+        <v>9</v>
+      </c>
+      <c r="G47">
+        <v>3891.81</v>
       </c>
       <c r="H47" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>13</v>
-      </c>
-      <c r="K47" s="1">
-        <v>3937.24</v>
+        <v>9</v>
+      </c>
+      <c r="K47">
+        <v>3944.05</v>
       </c>
       <c r="L47" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C48">
         <v>2</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>9.1199999999999992</v>
+        <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" s="1">
-        <v>3927.86</v>
+        <v>9</v>
+      </c>
+      <c r="G48">
+        <v>3937.11</v>
       </c>
       <c r="H48" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>13</v>
-      </c>
-      <c r="K48" s="1">
-        <v>3936.98</v>
+        <v>9</v>
+      </c>
+      <c r="K48">
+        <v>3937.11</v>
       </c>
       <c r="L48" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B49" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -3986,36 +3982,36 @@
         <v>1</v>
       </c>
       <c r="E49">
-        <v>52.25</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" s="1">
-        <v>3832.52</v>
+        <v>9</v>
+      </c>
+      <c r="G49">
+        <v>3927.86</v>
       </c>
       <c r="H49" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>13</v>
-      </c>
-      <c r="K49" s="1">
-        <v>3884.77</v>
+        <v>9</v>
+      </c>
+      <c r="K49">
+        <v>3936.98</v>
       </c>
       <c r="L49" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C50">
         <v>2</v>
@@ -4024,36 +4020,36 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>9.1199999999999992</v>
+        <v>52.25</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" s="1">
-        <v>3918.72</v>
+        <v>9</v>
+      </c>
+      <c r="G50">
+        <v>3832.52</v>
       </c>
       <c r="H50" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>13</v>
-      </c>
-      <c r="K50" s="1">
-        <v>3927.84</v>
+        <v>9</v>
+      </c>
+      <c r="K50">
+        <v>3884.77</v>
       </c>
       <c r="L50" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B51" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C51">
         <v>2</v>
@@ -4062,36 +4058,36 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>52.25</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" s="1">
-        <v>3887.68</v>
+        <v>9</v>
+      </c>
+      <c r="G51">
+        <v>3918.72</v>
       </c>
       <c r="H51" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>13</v>
-      </c>
-      <c r="K51" s="1">
-        <v>3939.93</v>
+        <v>9</v>
+      </c>
+      <c r="K51">
+        <v>3927.84</v>
       </c>
       <c r="L51" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B52" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -4100,36 +4096,36 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>9.1199999999999992</v>
+        <v>52.25</v>
       </c>
       <c r="F52" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" s="1">
-        <v>3927.88</v>
+        <v>9</v>
+      </c>
+      <c r="G52">
+        <v>3887.68</v>
       </c>
       <c r="H52" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>13</v>
-      </c>
-      <c r="K52" s="1">
-        <v>3937.01</v>
+        <v>9</v>
+      </c>
+      <c r="K52">
+        <v>3939.93</v>
       </c>
       <c r="L52" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B53" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -4141,33 +4137,33 @@
         <v>9.1199999999999992</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" s="1">
-        <v>3927.03</v>
+        <v>9</v>
+      </c>
+      <c r="G53">
+        <v>3927.88</v>
       </c>
       <c r="H53" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>13</v>
-      </c>
-      <c r="K53" s="1">
-        <v>3936.15</v>
+        <v>9</v>
+      </c>
+      <c r="K53">
+        <v>3937.01</v>
       </c>
       <c r="L53" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B54" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C54">
         <v>2</v>
@@ -4179,33 +4175,33 @@
         <v>9.1199999999999992</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" s="1">
-        <v>3919.22</v>
+        <v>9</v>
+      </c>
+      <c r="G54">
+        <v>3927.03</v>
       </c>
       <c r="H54" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>13</v>
-      </c>
-      <c r="K54" s="1">
-        <v>3928.35</v>
+        <v>9</v>
+      </c>
+      <c r="K54">
+        <v>3936.15</v>
       </c>
       <c r="L54" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B55" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -4214,36 +4210,36 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>52.25</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" s="1">
-        <v>3884.71</v>
+        <v>9</v>
+      </c>
+      <c r="G55">
+        <v>3919.22</v>
       </c>
       <c r="H55" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>13</v>
-      </c>
-      <c r="K55" s="1">
-        <v>3936.95</v>
+        <v>9</v>
+      </c>
+      <c r="K55">
+        <v>3928.35</v>
       </c>
       <c r="L55" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B56" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C56">
         <v>2</v>
@@ -4252,36 +4248,36 @@
         <v>1</v>
       </c>
       <c r="E56">
-        <v>9.1199999999999992</v>
+        <v>52.25</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" s="1">
-        <v>3920.29</v>
+        <v>9</v>
+      </c>
+      <c r="G56">
+        <v>3884.71</v>
       </c>
       <c r="H56" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>13</v>
-      </c>
-      <c r="K56" s="1">
-        <v>3929.41</v>
+        <v>9</v>
+      </c>
+      <c r="K56">
+        <v>3936.95</v>
       </c>
       <c r="L56" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B57" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -4290,36 +4286,36 @@
         <v>1</v>
       </c>
       <c r="E57">
-        <v>52.25</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" s="1">
-        <v>3833.78</v>
+        <v>9</v>
+      </c>
+      <c r="G57">
+        <v>3920.29</v>
       </c>
       <c r="H57" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>13</v>
-      </c>
-      <c r="K57" s="1">
-        <v>3886.03</v>
+        <v>9</v>
+      </c>
+      <c r="K57">
+        <v>3929.41</v>
       </c>
       <c r="L57" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B58" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C58">
         <v>2</v>
@@ -4328,36 +4324,36 @@
         <v>1</v>
       </c>
       <c r="E58">
-        <v>9.1199999999999992</v>
+        <v>52.25</v>
       </c>
       <c r="F58" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" s="1">
-        <v>3918.87</v>
+        <v>9</v>
+      </c>
+      <c r="G58">
+        <v>3833.78</v>
       </c>
       <c r="H58" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>13</v>
-      </c>
-      <c r="K58" s="1">
-        <v>3927.99</v>
+        <v>9</v>
+      </c>
+      <c r="K58">
+        <v>3886.03</v>
       </c>
       <c r="L58" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B59" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -4366,74 +4362,74 @@
         <v>1</v>
       </c>
       <c r="E59">
-        <v>52.25</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" s="1">
-        <v>3884.05</v>
+        <v>9</v>
+      </c>
+      <c r="G59">
+        <v>3918.87</v>
       </c>
       <c r="H59" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>13</v>
-      </c>
-      <c r="K59" s="1">
-        <v>3936.3</v>
+        <v>9</v>
+      </c>
+      <c r="K59">
+        <v>3927.99</v>
       </c>
       <c r="L59" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B60" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C60">
         <v>2</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E60">
-        <v>61.37</v>
+        <v>52.25</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" s="1">
-        <v>3810.98</v>
+        <v>9</v>
+      </c>
+      <c r="G60">
+        <v>3884.05</v>
       </c>
       <c r="H60" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>13</v>
-      </c>
-      <c r="K60" s="1">
-        <v>3872.35</v>
+        <v>9</v>
+      </c>
+      <c r="K60">
+        <v>3936.3</v>
       </c>
       <c r="L60" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B61" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -4442,36 +4438,36 @@
         <v>2</v>
       </c>
       <c r="E61">
-        <v>18.25</v>
+        <v>61.37</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" s="1">
-        <v>3916.73</v>
+        <v>9</v>
+      </c>
+      <c r="G61">
+        <v>3810.98</v>
       </c>
       <c r="H61" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>13</v>
-      </c>
-      <c r="K61" s="1">
-        <v>3934.98</v>
+        <v>9</v>
+      </c>
+      <c r="K61">
+        <v>3872.35</v>
       </c>
       <c r="L61" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B62" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -4480,188 +4476,188 @@
         <v>2</v>
       </c>
       <c r="E62">
-        <v>61.37</v>
+        <v>18.25</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" s="1">
-        <v>3813.09</v>
+        <v>9</v>
+      </c>
+      <c r="G62">
+        <v>3916.73</v>
       </c>
       <c r="H62" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>13</v>
-      </c>
-      <c r="K62" s="1">
-        <v>3874.46</v>
+        <v>9</v>
+      </c>
+      <c r="K62">
+        <v>3934.98</v>
       </c>
       <c r="L62" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B63" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C63">
         <v>2</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E63">
-        <v>52.25</v>
+        <v>61.37</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" s="1">
-        <v>3885.24</v>
+        <v>9</v>
+      </c>
+      <c r="G63">
+        <v>3813.09</v>
       </c>
       <c r="H63" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>13</v>
-      </c>
-      <c r="K63" s="1">
-        <v>3937.49</v>
+        <v>9</v>
+      </c>
+      <c r="K63">
+        <v>3874.46</v>
       </c>
       <c r="L63" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B64" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C64">
         <v>2</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E64">
-        <v>61.37</v>
+        <v>52.25</v>
       </c>
       <c r="F64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" s="1">
-        <v>3814.44</v>
+        <v>9</v>
+      </c>
+      <c r="G64">
+        <v>3885.24</v>
       </c>
       <c r="H64" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>13</v>
-      </c>
-      <c r="K64" s="1">
-        <v>3875.81</v>
+        <v>9</v>
+      </c>
+      <c r="K64">
+        <v>3937.49</v>
       </c>
       <c r="L64" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B65" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C65">
         <v>2</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E65">
-        <v>52.25</v>
+        <v>61.37</v>
       </c>
       <c r="F65" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" s="1">
-        <v>3829.45</v>
+        <v>9</v>
+      </c>
+      <c r="G65">
+        <v>3814.44</v>
       </c>
       <c r="H65" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>13</v>
-      </c>
-      <c r="K65" s="1">
-        <v>3881.7</v>
+        <v>9</v>
+      </c>
+      <c r="K65">
+        <v>3875.81</v>
       </c>
       <c r="L65" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B66" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C66">
         <v>2</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E66">
-        <v>61.37</v>
+        <v>52.25</v>
       </c>
       <c r="F66" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" s="1">
-        <v>3874.85</v>
+        <v>9</v>
+      </c>
+      <c r="G66">
+        <v>3829.45</v>
       </c>
       <c r="H66" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>13</v>
-      </c>
-      <c r="K66" s="1">
-        <v>3936.22</v>
+        <v>9</v>
+      </c>
+      <c r="K66">
+        <v>3881.7</v>
       </c>
       <c r="L66" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B67" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -4673,71 +4669,71 @@
         <v>61.37</v>
       </c>
       <c r="F67" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" s="1">
-        <v>3875.65</v>
+        <v>9</v>
+      </c>
+      <c r="G67">
+        <v>3874.85</v>
       </c>
       <c r="H67" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>13</v>
-      </c>
-      <c r="K67" s="1">
-        <v>3937.02</v>
+        <v>9</v>
+      </c>
+      <c r="K67">
+        <v>3936.22</v>
       </c>
       <c r="L67" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B68" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C68">
         <v>2</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E68">
-        <v>9.1199999999999992</v>
+        <v>61.37</v>
       </c>
       <c r="F68" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" s="1">
-        <v>3918.77</v>
+        <v>9</v>
+      </c>
+      <c r="G68">
+        <v>3875.65</v>
       </c>
       <c r="H68" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I68">
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>13</v>
-      </c>
-      <c r="K68" s="1">
-        <v>3927.89</v>
+        <v>9</v>
+      </c>
+      <c r="K68">
+        <v>3937.02</v>
       </c>
       <c r="L68" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B69" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -4749,33 +4745,33 @@
         <v>9.1199999999999992</v>
       </c>
       <c r="F69" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" s="1">
-        <v>3916.36</v>
+        <v>9</v>
+      </c>
+      <c r="G69">
+        <v>3918.77</v>
       </c>
       <c r="H69" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I69">
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>13</v>
-      </c>
-      <c r="K69" s="1">
-        <v>3925.48</v>
+        <v>9</v>
+      </c>
+      <c r="K69">
+        <v>3927.89</v>
       </c>
       <c r="L69" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B70" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -4784,36 +4780,36 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <v>52.25</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="F70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" s="1">
-        <v>3887.59</v>
+        <v>9</v>
+      </c>
+      <c r="G70">
+        <v>3916.36</v>
       </c>
       <c r="H70" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>13</v>
-      </c>
-      <c r="K70" s="1">
-        <v>3939.83</v>
+        <v>9</v>
+      </c>
+      <c r="K70">
+        <v>3925.48</v>
       </c>
       <c r="L70" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B71" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -4825,33 +4821,33 @@
         <v>52.25</v>
       </c>
       <c r="F71" t="s">
-        <v>13</v>
-      </c>
-      <c r="G71" s="1">
-        <v>3884.76</v>
+        <v>9</v>
+      </c>
+      <c r="G71">
+        <v>3887.59</v>
       </c>
       <c r="H71" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>13</v>
-      </c>
-      <c r="K71" s="1">
-        <v>3937</v>
+        <v>9</v>
+      </c>
+      <c r="K71">
+        <v>3939.83</v>
       </c>
       <c r="L71" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B72" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C72">
         <v>2</v>
@@ -4863,33 +4859,33 @@
         <v>52.25</v>
       </c>
       <c r="F72" t="s">
-        <v>13</v>
-      </c>
-      <c r="G72" s="1">
-        <v>3832.83</v>
+        <v>9</v>
+      </c>
+      <c r="G72">
+        <v>3884.76</v>
       </c>
       <c r="H72" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I72">
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>13</v>
-      </c>
-      <c r="K72" s="1">
-        <v>3885.08</v>
+        <v>9</v>
+      </c>
+      <c r="K72">
+        <v>3937</v>
       </c>
       <c r="L72" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B73" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -4898,112 +4894,112 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <v>9.1199999999999992</v>
+        <v>52.25</v>
       </c>
       <c r="F73" t="s">
-        <v>13</v>
-      </c>
-      <c r="G73" s="1">
-        <v>3918.76</v>
+        <v>9</v>
+      </c>
+      <c r="G73">
+        <v>3832.83</v>
       </c>
       <c r="H73" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>13</v>
-      </c>
-      <c r="K73" s="1">
-        <v>3927.89</v>
+        <v>9</v>
+      </c>
+      <c r="K73">
+        <v>3885.08</v>
       </c>
       <c r="L73" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B74" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C74">
         <v>2</v>
       </c>
       <c r="D74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E74">
-        <v>113.62</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="F74" t="s">
-        <v>13</v>
-      </c>
-      <c r="G74" s="1">
-        <v>3823.42</v>
+        <v>9</v>
+      </c>
+      <c r="G74">
+        <v>3918.76</v>
       </c>
       <c r="H74" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>13</v>
-      </c>
-      <c r="K74" s="1">
-        <v>3937.04</v>
+        <v>9</v>
+      </c>
+      <c r="K74">
+        <v>3927.89</v>
       </c>
       <c r="L74" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B75" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C75">
         <v>2</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E75">
-        <v>9.1199999999999992</v>
+        <v>113.62</v>
       </c>
       <c r="F75" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" s="1">
-        <v>3928.14</v>
+        <v>9</v>
+      </c>
+      <c r="G75">
+        <v>3823.42</v>
       </c>
       <c r="H75" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>13</v>
-      </c>
-      <c r="K75" s="1">
-        <v>3937.27</v>
+        <v>9</v>
+      </c>
+      <c r="K75">
+        <v>3937.04</v>
       </c>
       <c r="L75" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B76" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -5015,33 +5011,33 @@
         <v>9.1199999999999992</v>
       </c>
       <c r="F76" t="s">
-        <v>13</v>
-      </c>
-      <c r="G76" s="1">
-        <v>3927.88</v>
+        <v>9</v>
+      </c>
+      <c r="G76">
+        <v>3928.14</v>
       </c>
       <c r="H76" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>13</v>
-      </c>
-      <c r="K76" s="1">
-        <v>3937.01</v>
+        <v>9</v>
+      </c>
+      <c r="K76">
+        <v>3937.27</v>
       </c>
       <c r="L76" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B77" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -5050,36 +5046,36 @@
         <v>1</v>
       </c>
       <c r="E77">
-        <v>52.25</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="F77" t="s">
-        <v>13</v>
-      </c>
-      <c r="G77" s="1">
-        <v>3886.08</v>
+        <v>9</v>
+      </c>
+      <c r="G77">
+        <v>3927.88</v>
       </c>
       <c r="H77" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I77">
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>13</v>
-      </c>
-      <c r="K77" s="1">
-        <v>3938.33</v>
+        <v>9</v>
+      </c>
+      <c r="K77">
+        <v>3937.01</v>
       </c>
       <c r="L77" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B78" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -5091,33 +5087,33 @@
         <v>52.25</v>
       </c>
       <c r="F78" t="s">
-        <v>13</v>
-      </c>
-      <c r="G78" s="1">
-        <v>3885.75</v>
+        <v>9</v>
+      </c>
+      <c r="G78">
+        <v>3886.08</v>
       </c>
       <c r="H78" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I78">
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>13</v>
-      </c>
-      <c r="K78" s="1">
-        <v>3938</v>
+        <v>9</v>
+      </c>
+      <c r="K78">
+        <v>3938.33</v>
       </c>
       <c r="L78" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B79" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C79">
         <v>2</v>
@@ -5126,36 +5122,36 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>9.1199999999999992</v>
+        <v>52.25</v>
       </c>
       <c r="F79" t="s">
-        <v>13</v>
-      </c>
-      <c r="G79" s="1">
-        <v>3927.9</v>
+        <v>9</v>
+      </c>
+      <c r="G79">
+        <v>3885.75</v>
       </c>
       <c r="H79" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>13</v>
-      </c>
-      <c r="K79" s="1">
-        <v>3937.03</v>
+        <v>9</v>
+      </c>
+      <c r="K79">
+        <v>3938</v>
       </c>
       <c r="L79" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B80" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -5164,112 +5160,112 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>52.25</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="F80" t="s">
-        <v>13</v>
-      </c>
-      <c r="G80" s="1">
-        <v>3833.35</v>
+        <v>9</v>
+      </c>
+      <c r="G80">
+        <v>3927.9</v>
       </c>
       <c r="H80" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I80">
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>13</v>
-      </c>
-      <c r="K80" s="1">
-        <v>3885.6</v>
+        <v>9</v>
+      </c>
+      <c r="K80">
+        <v>3937.03</v>
       </c>
       <c r="L80" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B81" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C81">
         <v>2</v>
       </c>
       <c r="D81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E81">
-        <v>165.86</v>
+        <v>52.25</v>
       </c>
       <c r="F81" t="s">
-        <v>13</v>
-      </c>
-      <c r="G81" s="1">
-        <v>3708.25</v>
+        <v>9</v>
+      </c>
+      <c r="G81">
+        <v>3833.35</v>
       </c>
       <c r="H81" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I81">
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>13</v>
-      </c>
-      <c r="K81" s="1">
-        <v>3874.12</v>
+        <v>9</v>
+      </c>
+      <c r="K81">
+        <v>3885.6</v>
       </c>
       <c r="L81" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B82" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C82">
         <v>2</v>
       </c>
       <c r="D82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E82">
-        <v>18.25</v>
+        <v>165.86</v>
       </c>
       <c r="F82" t="s">
-        <v>13</v>
-      </c>
-      <c r="G82" s="1">
-        <v>3918.82</v>
+        <v>9</v>
+      </c>
+      <c r="G82">
+        <v>3708.25</v>
       </c>
       <c r="H82" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I82">
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>13</v>
-      </c>
-      <c r="K82" s="1">
-        <v>3937.07</v>
+        <v>9</v>
+      </c>
+      <c r="K82">
+        <v>3874.12</v>
       </c>
       <c r="L82" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B83" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -5278,74 +5274,74 @@
         <v>2</v>
       </c>
       <c r="E83">
-        <v>61.37</v>
+        <v>18.25</v>
       </c>
       <c r="F83" t="s">
-        <v>13</v>
-      </c>
-      <c r="G83" s="1">
-        <v>3875.44</v>
+        <v>9</v>
+      </c>
+      <c r="G83">
+        <v>3918.82</v>
       </c>
       <c r="H83" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I83">
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>13</v>
-      </c>
-      <c r="K83" s="1">
-        <v>3936.81</v>
+        <v>9</v>
+      </c>
+      <c r="K83">
+        <v>3937.07</v>
       </c>
       <c r="L83" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B84" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C84">
         <v>2</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E84">
-        <v>52.25</v>
+        <v>61.37</v>
       </c>
       <c r="F84" t="s">
-        <v>13</v>
-      </c>
-      <c r="G84" s="1">
-        <v>3885.72</v>
+        <v>9</v>
+      </c>
+      <c r="G84">
+        <v>3875.44</v>
       </c>
       <c r="H84" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I84">
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>13</v>
-      </c>
-      <c r="K84" s="1">
-        <v>3937.97</v>
+        <v>9</v>
+      </c>
+      <c r="K84">
+        <v>3936.81</v>
       </c>
       <c r="L84" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B85" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -5354,36 +5350,36 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <v>9.1199999999999992</v>
+        <v>52.25</v>
       </c>
       <c r="F85" t="s">
-        <v>13</v>
-      </c>
-      <c r="G85" s="1">
-        <v>3918.74</v>
+        <v>9</v>
+      </c>
+      <c r="G85">
+        <v>3885.72</v>
       </c>
       <c r="H85" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I85">
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>13</v>
-      </c>
-      <c r="K85" s="1">
-        <v>3927.86</v>
+        <v>9</v>
+      </c>
+      <c r="K85">
+        <v>3937.97</v>
       </c>
       <c r="L85" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B86" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -5392,36 +5388,36 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>52.25</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="F86" t="s">
-        <v>13</v>
-      </c>
-      <c r="G86" s="1">
-        <v>3884.11</v>
+        <v>9</v>
+      </c>
+      <c r="G86">
+        <v>3918.74</v>
       </c>
       <c r="H86" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>13</v>
-      </c>
-      <c r="K86" s="1">
-        <v>3936.36</v>
+        <v>9</v>
+      </c>
+      <c r="K86">
+        <v>3927.86</v>
       </c>
       <c r="L86" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B87" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -5430,36 +5426,36 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>9.1199999999999992</v>
+        <v>52.25</v>
       </c>
       <c r="F87" t="s">
-        <v>13</v>
-      </c>
-      <c r="G87" s="1">
-        <v>3918.71</v>
+        <v>9</v>
+      </c>
+      <c r="G87">
+        <v>3884.11</v>
       </c>
       <c r="H87" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I87">
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>13</v>
-      </c>
-      <c r="K87" s="1">
-        <v>3927.84</v>
+        <v>9</v>
+      </c>
+      <c r="K87">
+        <v>3936.36</v>
       </c>
       <c r="L87" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B88" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C88">
         <v>2</v>
@@ -5471,33 +5467,33 @@
         <v>9.1199999999999992</v>
       </c>
       <c r="F88" t="s">
-        <v>13</v>
-      </c>
-      <c r="G88" s="1">
-        <v>3918.76</v>
+        <v>9</v>
+      </c>
+      <c r="G88">
+        <v>3918.71</v>
       </c>
       <c r="H88" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>13</v>
-      </c>
-      <c r="K88" s="1">
-        <v>3927.88</v>
+        <v>9</v>
+      </c>
+      <c r="K88">
+        <v>3927.84</v>
       </c>
       <c r="L88" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B89" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C89">
         <v>2</v>
@@ -5509,33 +5505,33 @@
         <v>9.1199999999999992</v>
       </c>
       <c r="F89" t="s">
-        <v>13</v>
-      </c>
-      <c r="G89" s="1">
-        <v>3918.79</v>
+        <v>9</v>
+      </c>
+      <c r="G89">
+        <v>3918.76</v>
       </c>
       <c r="H89" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>13</v>
-      </c>
-      <c r="K89" s="1">
-        <v>3927.91</v>
+        <v>9</v>
+      </c>
+      <c r="K89">
+        <v>3927.88</v>
       </c>
       <c r="L89" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B90" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C90">
         <v>2</v>
@@ -5547,33 +5543,33 @@
         <v>9.1199999999999992</v>
       </c>
       <c r="F90" t="s">
-        <v>13</v>
-      </c>
-      <c r="G90" s="1">
-        <v>3918.8</v>
+        <v>9</v>
+      </c>
+      <c r="G90">
+        <v>3918.79</v>
       </c>
       <c r="H90" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I90">
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>13</v>
-      </c>
-      <c r="K90" s="1">
-        <v>3927.92</v>
+        <v>9</v>
+      </c>
+      <c r="K90">
+        <v>3927.91</v>
       </c>
       <c r="L90" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B91" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C91">
         <v>2</v>
@@ -5585,33 +5581,33 @@
         <v>9.1199999999999992</v>
       </c>
       <c r="F91" t="s">
-        <v>13</v>
-      </c>
-      <c r="G91" s="1">
-        <v>3918.87</v>
+        <v>9</v>
+      </c>
+      <c r="G91">
+        <v>3918.8</v>
       </c>
       <c r="H91" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I91">
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>13</v>
-      </c>
-      <c r="K91" s="1">
-        <v>3927.99</v>
+        <v>9</v>
+      </c>
+      <c r="K91">
+        <v>3927.92</v>
       </c>
       <c r="L91" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B92" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C92">
         <v>2</v>
@@ -5620,36 +5616,36 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>52.25</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="F92" t="s">
-        <v>13</v>
-      </c>
-      <c r="G92" s="1">
-        <v>3832.05</v>
+        <v>9</v>
+      </c>
+      <c r="G92">
+        <v>3918.87</v>
       </c>
       <c r="H92" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I92">
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>13</v>
-      </c>
-      <c r="K92" s="1">
-        <v>3884.3</v>
+        <v>9</v>
+      </c>
+      <c r="K92">
+        <v>3927.99</v>
       </c>
       <c r="L92" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B93" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C93">
         <v>2</v>
@@ -5661,33 +5657,33 @@
         <v>52.25</v>
       </c>
       <c r="F93" t="s">
-        <v>13</v>
-      </c>
-      <c r="G93" s="1">
-        <v>3834.38</v>
+        <v>9</v>
+      </c>
+      <c r="G93">
+        <v>3832.05</v>
       </c>
       <c r="H93" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I93">
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>13</v>
-      </c>
-      <c r="K93" s="1">
-        <v>3886.62</v>
+        <v>9</v>
+      </c>
+      <c r="K93">
+        <v>3884.3</v>
       </c>
       <c r="L93" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B94" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -5699,33 +5695,33 @@
         <v>52.25</v>
       </c>
       <c r="F94" t="s">
-        <v>13</v>
-      </c>
-      <c r="G94" s="1">
-        <v>3832.03</v>
+        <v>9</v>
+      </c>
+      <c r="G94">
+        <v>3834.38</v>
       </c>
       <c r="H94" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I94">
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>13</v>
-      </c>
-      <c r="K94" s="1">
-        <v>3884.28</v>
+        <v>9</v>
+      </c>
+      <c r="K94">
+        <v>3886.62</v>
       </c>
       <c r="L94" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B95" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C95">
         <v>2</v>
@@ -5734,36 +5730,36 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>9.1199999999999992</v>
+        <v>52.25</v>
       </c>
       <c r="F95" t="s">
-        <v>13</v>
-      </c>
-      <c r="G95" s="1">
-        <v>3918.76</v>
+        <v>9</v>
+      </c>
+      <c r="G95">
+        <v>3832.03</v>
       </c>
       <c r="H95" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I95">
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>13</v>
-      </c>
-      <c r="K95" s="1">
-        <v>3927.89</v>
+        <v>9</v>
+      </c>
+      <c r="K95">
+        <v>3884.28</v>
       </c>
       <c r="L95" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B96" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C96">
         <v>2</v>
@@ -5772,36 +5768,36 @@
         <v>1</v>
       </c>
       <c r="E96">
-        <v>52.25</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="F96" t="s">
-        <v>13</v>
-      </c>
-      <c r="G96" s="1">
-        <v>3832.04</v>
+        <v>9</v>
+      </c>
+      <c r="G96">
+        <v>3918.76</v>
       </c>
       <c r="H96" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>13</v>
-      </c>
-      <c r="K96" s="1">
-        <v>3884.28</v>
+        <v>9</v>
+      </c>
+      <c r="K96">
+        <v>3927.89</v>
       </c>
       <c r="L96" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B97" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C97">
         <v>2</v>
@@ -5810,36 +5806,36 @@
         <v>1</v>
       </c>
       <c r="E97">
-        <v>9.1199999999999992</v>
+        <v>52.25</v>
       </c>
       <c r="F97" t="s">
-        <v>13</v>
-      </c>
-      <c r="G97" s="1">
-        <v>3919.53</v>
+        <v>9</v>
+      </c>
+      <c r="G97">
+        <v>3832.04</v>
       </c>
       <c r="H97" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>13</v>
-      </c>
-      <c r="K97" s="1">
-        <v>3928.66</v>
+        <v>9</v>
+      </c>
+      <c r="K97">
+        <v>3884.28</v>
       </c>
       <c r="L97" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B98" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C98">
         <v>2</v>
@@ -5851,33 +5847,33 @@
         <v>9.1199999999999992</v>
       </c>
       <c r="F98" t="s">
-        <v>13</v>
-      </c>
-      <c r="G98" s="1">
-        <v>3918.89</v>
+        <v>9</v>
+      </c>
+      <c r="G98">
+        <v>3919.53</v>
       </c>
       <c r="H98" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I98">
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>13</v>
-      </c>
-      <c r="K98" s="1">
-        <v>3928.01</v>
+        <v>9</v>
+      </c>
+      <c r="K98">
+        <v>3928.66</v>
       </c>
       <c r="L98" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B99" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -5889,33 +5885,33 @@
         <v>9.1199999999999992</v>
       </c>
       <c r="F99" t="s">
-        <v>13</v>
-      </c>
-      <c r="G99" s="1">
-        <v>3929.1</v>
+        <v>9</v>
+      </c>
+      <c r="G99">
+        <v>3918.89</v>
       </c>
       <c r="H99" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>13</v>
-      </c>
-      <c r="K99" s="1">
-        <v>3938.22</v>
+        <v>9</v>
+      </c>
+      <c r="K99">
+        <v>3928.01</v>
       </c>
       <c r="L99" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B100" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C100">
         <v>2</v>
@@ -5924,36 +5920,36 @@
         <v>1</v>
       </c>
       <c r="E100">
-        <v>52.25</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="F100" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" s="1">
-        <v>3832.62</v>
+        <v>9</v>
+      </c>
+      <c r="G100">
+        <v>3929.1</v>
       </c>
       <c r="H100" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I100">
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>13</v>
-      </c>
-      <c r="K100" s="1">
-        <v>3884.86</v>
+        <v>9</v>
+      </c>
+      <c r="K100">
+        <v>3938.22</v>
       </c>
       <c r="L100" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B101" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C101">
         <v>2</v>
@@ -5962,112 +5958,112 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>9.1199999999999992</v>
+        <v>52.25</v>
       </c>
       <c r="F101" t="s">
-        <v>13</v>
-      </c>
-      <c r="G101" s="1">
-        <v>3918.76</v>
+        <v>9</v>
+      </c>
+      <c r="G101">
+        <v>3832.62</v>
       </c>
       <c r="H101" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I101">
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>13</v>
-      </c>
-      <c r="K101" s="1">
-        <v>3927.88</v>
+        <v>9</v>
+      </c>
+      <c r="K101">
+        <v>3884.86</v>
       </c>
       <c r="L101" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B102" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C102">
         <v>2</v>
       </c>
       <c r="D102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E102">
-        <v>113.62</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="F102" t="s">
-        <v>13</v>
-      </c>
-      <c r="G102" s="1">
-        <v>3813.9</v>
+        <v>9</v>
+      </c>
+      <c r="G102">
+        <v>3918.76</v>
       </c>
       <c r="H102" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I102">
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>13</v>
-      </c>
-      <c r="K102" s="1">
-        <v>3927.52</v>
+        <v>9</v>
+      </c>
+      <c r="K102">
+        <v>3927.88</v>
       </c>
       <c r="L102" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B103" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C103">
         <v>2</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E103">
-        <v>9.1199999999999992</v>
+        <v>113.62</v>
       </c>
       <c r="F103" t="s">
-        <v>13</v>
-      </c>
-      <c r="G103" s="1">
-        <v>3918.76</v>
+        <v>9</v>
+      </c>
+      <c r="G103">
+        <v>3813.9</v>
       </c>
       <c r="H103" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I103">
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>13</v>
-      </c>
-      <c r="K103" s="1">
-        <v>3927.88</v>
+        <v>9</v>
+      </c>
+      <c r="K103">
+        <v>3927.52</v>
       </c>
       <c r="L103" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B104" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C104">
         <v>2</v>
@@ -6076,36 +6072,36 @@
         <v>1</v>
       </c>
       <c r="E104">
-        <v>52.25</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="F104" t="s">
-        <v>13</v>
-      </c>
-      <c r="G104" s="1">
-        <v>3886.34</v>
+        <v>9</v>
+      </c>
+      <c r="G104">
+        <v>3918.76</v>
       </c>
       <c r="H104" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>13</v>
-      </c>
-      <c r="K104" s="1">
-        <v>3938.59</v>
+        <v>9</v>
+      </c>
+      <c r="K104">
+        <v>3927.88</v>
       </c>
       <c r="L104" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B105" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C105">
         <v>2</v>
@@ -6114,36 +6110,36 @@
         <v>1</v>
       </c>
       <c r="E105">
-        <v>9.1199999999999992</v>
+        <v>52.25</v>
       </c>
       <c r="F105" t="s">
-        <v>13</v>
-      </c>
-      <c r="G105" s="1">
-        <v>3924.17</v>
+        <v>9</v>
+      </c>
+      <c r="G105">
+        <v>3886.34</v>
       </c>
       <c r="H105" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I105">
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>13</v>
-      </c>
-      <c r="K105" s="1">
-        <v>3933.29</v>
+        <v>9</v>
+      </c>
+      <c r="K105">
+        <v>3938.59</v>
       </c>
       <c r="L105" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B106" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C106">
         <v>2</v>
@@ -6152,36 +6148,36 @@
         <v>1</v>
       </c>
       <c r="E106">
-        <v>52.25</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="F106" t="s">
-        <v>13</v>
-      </c>
-      <c r="G106" s="1">
-        <v>3885</v>
+        <v>9</v>
+      </c>
+      <c r="G106">
+        <v>3924.17</v>
       </c>
       <c r="H106" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I106">
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>13</v>
-      </c>
-      <c r="K106" s="1">
-        <v>3937.25</v>
+        <v>9</v>
+      </c>
+      <c r="K106">
+        <v>3933.29</v>
       </c>
       <c r="L106" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B107" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C107">
         <v>2</v>
@@ -6193,109 +6189,109 @@
         <v>52.25</v>
       </c>
       <c r="F107" t="s">
-        <v>13</v>
-      </c>
-      <c r="G107" s="1">
-        <v>3884.75</v>
+        <v>9</v>
+      </c>
+      <c r="G107">
+        <v>3885</v>
       </c>
       <c r="H107" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I107">
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>13</v>
-      </c>
-      <c r="K107" s="1">
-        <v>3937</v>
+        <v>9</v>
+      </c>
+      <c r="K107">
+        <v>3937.25</v>
       </c>
       <c r="L107" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B108" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C108">
         <v>2</v>
       </c>
       <c r="D108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E108">
-        <v>61.37</v>
+        <v>52.25</v>
       </c>
       <c r="F108" t="s">
-        <v>13</v>
-      </c>
-      <c r="G108" s="1">
-        <v>3874.13</v>
+        <v>9</v>
+      </c>
+      <c r="G108">
+        <v>3884.75</v>
       </c>
       <c r="H108" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I108">
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>13</v>
-      </c>
-      <c r="K108" s="1">
-        <v>3935.5</v>
+        <v>9</v>
+      </c>
+      <c r="K108">
+        <v>3937</v>
       </c>
       <c r="L108" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B109" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C109">
         <v>2</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E109">
-        <v>52.25</v>
+        <v>61.37</v>
       </c>
       <c r="F109" t="s">
-        <v>13</v>
-      </c>
-      <c r="G109" s="1">
-        <v>3885.07</v>
+        <v>9</v>
+      </c>
+      <c r="G109">
+        <v>3874.13</v>
       </c>
       <c r="H109" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I109">
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>13</v>
-      </c>
-      <c r="K109" s="1">
-        <v>3937.31</v>
+        <v>9</v>
+      </c>
+      <c r="K109">
+        <v>3935.5</v>
       </c>
       <c r="L109" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B110" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C110">
         <v>2</v>
@@ -6304,36 +6300,36 @@
         <v>1</v>
       </c>
       <c r="E110">
-        <v>9.1199999999999992</v>
+        <v>52.25</v>
       </c>
       <c r="F110" t="s">
-        <v>13</v>
-      </c>
-      <c r="G110" s="1">
-        <v>3927.89</v>
+        <v>9</v>
+      </c>
+      <c r="G110">
+        <v>3885.07</v>
       </c>
       <c r="H110" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I110">
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>13</v>
-      </c>
-      <c r="K110" s="1">
-        <v>3937.01</v>
+        <v>9</v>
+      </c>
+      <c r="K110">
+        <v>3937.31</v>
       </c>
       <c r="L110" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B111" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C111">
         <v>2</v>
@@ -6345,109 +6341,109 @@
         <v>9.1199999999999992</v>
       </c>
       <c r="F111" t="s">
-        <v>13</v>
-      </c>
-      <c r="G111" s="1">
-        <v>3918.72</v>
+        <v>9</v>
+      </c>
+      <c r="G111">
+        <v>3927.89</v>
       </c>
       <c r="H111" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I111">
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>13</v>
-      </c>
-      <c r="K111" s="1">
-        <v>3927.84</v>
+        <v>9</v>
+      </c>
+      <c r="K111">
+        <v>3937.01</v>
       </c>
       <c r="L111" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B112" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C112">
         <v>2</v>
       </c>
       <c r="D112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E112">
-        <v>61.37</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="F112" t="s">
-        <v>13</v>
-      </c>
-      <c r="G112" s="1">
-        <v>3816.03</v>
+        <v>9</v>
+      </c>
+      <c r="G112">
+        <v>3918.72</v>
       </c>
       <c r="H112" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I112">
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>13</v>
-      </c>
-      <c r="K112" s="1">
-        <v>3877.4</v>
+        <v>9</v>
+      </c>
+      <c r="K112">
+        <v>3927.84</v>
       </c>
       <c r="L112" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B113" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C113">
         <v>2</v>
       </c>
       <c r="D113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E113">
-        <v>52.25</v>
+        <v>61.37</v>
       </c>
       <c r="F113" t="s">
-        <v>13</v>
-      </c>
-      <c r="G113" s="1">
-        <v>3885.49</v>
+        <v>9</v>
+      </c>
+      <c r="G113">
+        <v>3816.03</v>
       </c>
       <c r="H113" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I113">
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>13</v>
-      </c>
-      <c r="K113" s="1">
-        <v>3937.74</v>
+        <v>9</v>
+      </c>
+      <c r="K113">
+        <v>3877.4</v>
       </c>
       <c r="L113" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B114" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C114">
         <v>2</v>
@@ -6456,36 +6452,36 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>9.1199999999999992</v>
+        <v>52.25</v>
       </c>
       <c r="F114" t="s">
-        <v>13</v>
-      </c>
-      <c r="G114" s="1">
-        <v>3927.67</v>
+        <v>9</v>
+      </c>
+      <c r="G114">
+        <v>3885.49</v>
       </c>
       <c r="H114" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I114">
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>13</v>
-      </c>
-      <c r="K114" s="1">
-        <v>3936.79</v>
+        <v>9</v>
+      </c>
+      <c r="K114">
+        <v>3937.74</v>
       </c>
       <c r="L114" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B115" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C115">
         <v>2</v>
@@ -6494,36 +6490,36 @@
         <v>1</v>
       </c>
       <c r="E115">
-        <v>52.25</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="F115" t="s">
-        <v>13</v>
-      </c>
-      <c r="G115" s="1">
-        <v>3832.81</v>
+        <v>9</v>
+      </c>
+      <c r="G115">
+        <v>3927.67</v>
       </c>
       <c r="H115" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I115">
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>13</v>
-      </c>
-      <c r="K115" s="1">
-        <v>3885.06</v>
+        <v>9</v>
+      </c>
+      <c r="K115">
+        <v>3936.79</v>
       </c>
       <c r="L115" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B116" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C116">
         <v>2</v>
@@ -6532,36 +6528,36 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>9.1199999999999992</v>
+        <v>52.25</v>
       </c>
       <c r="F116" t="s">
-        <v>13</v>
-      </c>
-      <c r="G116" s="1">
-        <v>3919.97</v>
+        <v>9</v>
+      </c>
+      <c r="G116">
+        <v>3832.81</v>
       </c>
       <c r="H116" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I116">
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>13</v>
-      </c>
-      <c r="K116" s="1">
-        <v>3929.09</v>
+        <v>9</v>
+      </c>
+      <c r="K116">
+        <v>3885.06</v>
       </c>
       <c r="L116" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B117" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C117">
         <v>2</v>
@@ -6570,36 +6566,36 @@
         <v>1</v>
       </c>
       <c r="E117">
-        <v>52.25</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="F117" t="s">
-        <v>13</v>
-      </c>
-      <c r="G117" s="1">
-        <v>3832.5</v>
+        <v>9</v>
+      </c>
+      <c r="G117">
+        <v>3919.97</v>
       </c>
       <c r="H117" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I117">
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>13</v>
-      </c>
-      <c r="K117" s="1">
-        <v>3884.75</v>
+        <v>9</v>
+      </c>
+      <c r="K117">
+        <v>3929.09</v>
       </c>
       <c r="L117" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B118" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C118">
         <v>2</v>
@@ -6608,112 +6604,112 @@
         <v>1</v>
       </c>
       <c r="E118">
-        <v>9.1199999999999992</v>
+        <v>52.25</v>
       </c>
       <c r="F118" t="s">
-        <v>13</v>
-      </c>
-      <c r="G118" s="1">
-        <v>3917.75</v>
+        <v>9</v>
+      </c>
+      <c r="G118">
+        <v>3832.5</v>
       </c>
       <c r="H118" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I118">
         <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>13</v>
-      </c>
-      <c r="K118" s="1">
-        <v>3926.87</v>
+        <v>9</v>
+      </c>
+      <c r="K118">
+        <v>3884.75</v>
       </c>
       <c r="L118" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B119" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C119">
         <v>2</v>
       </c>
       <c r="D119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E119">
-        <v>61.37</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="F119" t="s">
-        <v>13</v>
-      </c>
-      <c r="G119" s="1">
-        <v>3814.47</v>
+        <v>9</v>
+      </c>
+      <c r="G119">
+        <v>3917.75</v>
       </c>
       <c r="H119" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I119">
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>13</v>
-      </c>
-      <c r="K119" s="1">
-        <v>3875.84</v>
+        <v>9</v>
+      </c>
+      <c r="K119">
+        <v>3926.87</v>
       </c>
       <c r="L119" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B120" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C120">
         <v>2</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E120">
-        <v>52.25</v>
+        <v>61.37</v>
       </c>
       <c r="F120" t="s">
-        <v>13</v>
-      </c>
-      <c r="G120" s="1">
-        <v>3832.63</v>
+        <v>9</v>
+      </c>
+      <c r="G120">
+        <v>3814.47</v>
       </c>
       <c r="H120" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I120">
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>13</v>
-      </c>
-      <c r="K120" s="1">
-        <v>3884.88</v>
+        <v>9</v>
+      </c>
+      <c r="K120">
+        <v>3875.84</v>
       </c>
       <c r="L120" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B121" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C121">
         <v>2</v>
@@ -6725,33 +6721,33 @@
         <v>52.25</v>
       </c>
       <c r="F121" t="s">
-        <v>13</v>
-      </c>
-      <c r="G121" s="1">
-        <v>3884.81</v>
+        <v>9</v>
+      </c>
+      <c r="G121">
+        <v>3832.63</v>
       </c>
       <c r="H121" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I121">
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>13</v>
-      </c>
-      <c r="K121" s="1">
-        <v>3937.05</v>
+        <v>9</v>
+      </c>
+      <c r="K121">
+        <v>3884.88</v>
       </c>
       <c r="L121" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B122" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C122">
         <v>2</v>
@@ -6760,36 +6756,36 @@
         <v>1</v>
       </c>
       <c r="E122">
-        <v>9.1199999999999992</v>
+        <v>52.25</v>
       </c>
       <c r="F122" t="s">
-        <v>13</v>
-      </c>
-      <c r="G122" s="1">
-        <v>3918.76</v>
+        <v>9</v>
+      </c>
+      <c r="G122">
+        <v>3884.81</v>
       </c>
       <c r="H122" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I122">
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>13</v>
-      </c>
-      <c r="K122" s="1">
-        <v>3927.88</v>
+        <v>9</v>
+      </c>
+      <c r="K122">
+        <v>3937.05</v>
       </c>
       <c r="L122" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B123" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C123">
         <v>2</v>
@@ -6798,36 +6794,36 @@
         <v>1</v>
       </c>
       <c r="E123">
-        <v>52.25</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="F123" t="s">
-        <v>13</v>
-      </c>
-      <c r="G123" s="1">
-        <v>3832.82</v>
+        <v>9</v>
+      </c>
+      <c r="G123">
+        <v>3918.76</v>
       </c>
       <c r="H123" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I123">
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>13</v>
-      </c>
-      <c r="K123" s="1">
-        <v>3885.07</v>
+        <v>9</v>
+      </c>
+      <c r="K123">
+        <v>3927.88</v>
       </c>
       <c r="L123" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B124" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C124">
         <v>2</v>
@@ -6836,36 +6832,36 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>9.1199999999999992</v>
+        <v>52.25</v>
       </c>
       <c r="F124" t="s">
-        <v>13</v>
-      </c>
-      <c r="G124" s="1">
-        <v>3918.77</v>
+        <v>9</v>
+      </c>
+      <c r="G124">
+        <v>3832.82</v>
       </c>
       <c r="H124" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I124">
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>13</v>
-      </c>
-      <c r="K124" s="1">
-        <v>3927.9</v>
+        <v>9</v>
+      </c>
+      <c r="K124">
+        <v>3885.07</v>
       </c>
       <c r="L124" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B125" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C125">
         <v>2</v>
@@ -6877,33 +6873,33 @@
         <v>9.1199999999999992</v>
       </c>
       <c r="F125" t="s">
-        <v>13</v>
-      </c>
-      <c r="G125" s="1">
-        <v>3918.74</v>
+        <v>9</v>
+      </c>
+      <c r="G125">
+        <v>3918.77</v>
       </c>
       <c r="H125" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I125">
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>13</v>
-      </c>
-      <c r="K125" s="1">
-        <v>3927.86</v>
+        <v>9</v>
+      </c>
+      <c r="K125">
+        <v>3927.9</v>
       </c>
       <c r="L125" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B126" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C126">
         <v>2</v>
@@ -6915,33 +6911,33 @@
         <v>9.1199999999999992</v>
       </c>
       <c r="F126" t="s">
-        <v>13</v>
-      </c>
-      <c r="G126" s="1">
-        <v>3918.76</v>
+        <v>9</v>
+      </c>
+      <c r="G126">
+        <v>3918.74</v>
       </c>
       <c r="H126" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I126">
         <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>13</v>
-      </c>
-      <c r="K126" s="1">
-        <v>3927.88</v>
+        <v>9</v>
+      </c>
+      <c r="K126">
+        <v>3927.86</v>
       </c>
       <c r="L126" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B127" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C127">
         <v>2</v>
@@ -6950,112 +6946,112 @@
         <v>1</v>
       </c>
       <c r="E127">
-        <v>52.25</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="F127" t="s">
-        <v>13</v>
-      </c>
-      <c r="G127" s="1">
-        <v>3833.13</v>
+        <v>9</v>
+      </c>
+      <c r="G127">
+        <v>3918.76</v>
       </c>
       <c r="H127" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I127">
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>13</v>
-      </c>
-      <c r="K127" s="1">
-        <v>3885.38</v>
+        <v>9</v>
+      </c>
+      <c r="K127">
+        <v>3927.88</v>
       </c>
       <c r="L127" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B128" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C128">
         <v>2</v>
       </c>
       <c r="D128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E128">
-        <v>61.37</v>
+        <v>52.25</v>
       </c>
       <c r="F128" t="s">
-        <v>13</v>
-      </c>
-      <c r="G128" s="1">
-        <v>3815.27</v>
+        <v>9</v>
+      </c>
+      <c r="G128">
+        <v>3833.13</v>
       </c>
       <c r="H128" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I128">
         <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>13</v>
-      </c>
-      <c r="K128" s="1">
-        <v>3876.64</v>
+        <v>9</v>
+      </c>
+      <c r="K128">
+        <v>3885.38</v>
       </c>
       <c r="L128" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B129" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C129">
         <v>2</v>
       </c>
       <c r="D129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E129">
-        <v>52.25</v>
+        <v>61.37</v>
       </c>
       <c r="F129" t="s">
-        <v>13</v>
-      </c>
-      <c r="G129" s="1">
-        <v>3831.79</v>
+        <v>9</v>
+      </c>
+      <c r="G129">
+        <v>3815.27</v>
       </c>
       <c r="H129" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I129">
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>13</v>
-      </c>
-      <c r="K129" s="1">
-        <v>3884.04</v>
+        <v>9</v>
+      </c>
+      <c r="K129">
+        <v>3876.64</v>
       </c>
       <c r="L129" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B130" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C130">
         <v>2</v>
@@ -7067,109 +7063,109 @@
         <v>52.25</v>
       </c>
       <c r="F130" t="s">
-        <v>13</v>
-      </c>
-      <c r="G130" s="1">
-        <v>3832.54</v>
+        <v>9</v>
+      </c>
+      <c r="G130">
+        <v>3831.79</v>
       </c>
       <c r="H130" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I130">
         <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>13</v>
-      </c>
-      <c r="K130" s="1">
-        <v>3884.78</v>
+        <v>9</v>
+      </c>
+      <c r="K130">
+        <v>3884.04</v>
       </c>
       <c r="L130" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B131" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C131">
         <v>2</v>
       </c>
       <c r="D131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E131">
-        <v>113.62</v>
+        <v>52.25</v>
       </c>
       <c r="F131" t="s">
-        <v>13</v>
-      </c>
-      <c r="G131" s="1">
-        <v>3812.76</v>
+        <v>9</v>
+      </c>
+      <c r="G131">
+        <v>3832.54</v>
       </c>
       <c r="H131" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I131">
         <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>13</v>
-      </c>
-      <c r="K131" s="1">
-        <v>3926.38</v>
+        <v>9</v>
+      </c>
+      <c r="K131">
+        <v>3884.78</v>
       </c>
       <c r="L131" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B132" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C132">
         <v>2</v>
       </c>
       <c r="D132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E132">
-        <v>9.1199999999999992</v>
+        <v>113.62</v>
       </c>
       <c r="F132" t="s">
-        <v>13</v>
-      </c>
-      <c r="G132" s="1">
-        <v>3918.82</v>
+        <v>9</v>
+      </c>
+      <c r="G132">
+        <v>3812.76</v>
       </c>
       <c r="H132" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I132">
         <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>13</v>
-      </c>
-      <c r="K132" s="1">
-        <v>3927.94</v>
+        <v>9</v>
+      </c>
+      <c r="K132">
+        <v>3926.38</v>
       </c>
       <c r="L132" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B133" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C133">
         <v>2</v>
@@ -7181,33 +7177,33 @@
         <v>9.1199999999999992</v>
       </c>
       <c r="F133" t="s">
-        <v>13</v>
-      </c>
-      <c r="G133" s="1">
-        <v>3920.82</v>
+        <v>9</v>
+      </c>
+      <c r="G133">
+        <v>3918.82</v>
       </c>
       <c r="H133" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I133">
         <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>13</v>
-      </c>
-      <c r="K133" s="1">
-        <v>3929.94</v>
+        <v>9</v>
+      </c>
+      <c r="K133">
+        <v>3927.94</v>
       </c>
       <c r="L133" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B134" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C134">
         <v>2</v>
@@ -7216,36 +7212,36 @@
         <v>1</v>
       </c>
       <c r="E134">
-        <v>52.25</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="F134" t="s">
-        <v>13</v>
-      </c>
-      <c r="G134" s="1">
-        <v>3832.67</v>
+        <v>9</v>
+      </c>
+      <c r="G134">
+        <v>3920.82</v>
       </c>
       <c r="H134" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I134">
         <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>13</v>
-      </c>
-      <c r="K134" s="1">
-        <v>3884.92</v>
+        <v>9</v>
+      </c>
+      <c r="K134">
+        <v>3929.94</v>
       </c>
       <c r="L134" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B135" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C135">
         <v>2</v>
@@ -7254,36 +7250,36 @@
         <v>1</v>
       </c>
       <c r="E135">
-        <v>9.1199999999999992</v>
+        <v>52.25</v>
       </c>
       <c r="F135" t="s">
-        <v>13</v>
-      </c>
-      <c r="G135" s="1">
-        <v>3921.96</v>
+        <v>9</v>
+      </c>
+      <c r="G135">
+        <v>3832.67</v>
       </c>
       <c r="H135" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I135">
         <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>13</v>
-      </c>
-      <c r="K135" s="1">
-        <v>3931.09</v>
+        <v>9</v>
+      </c>
+      <c r="K135">
+        <v>3884.92</v>
       </c>
       <c r="L135" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B136" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C136">
         <v>2</v>
@@ -7292,36 +7288,36 @@
         <v>1</v>
       </c>
       <c r="E136">
-        <v>52.25</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="F136" t="s">
-        <v>13</v>
-      </c>
-      <c r="G136" s="1">
-        <v>3832.53</v>
+        <v>9</v>
+      </c>
+      <c r="G136">
+        <v>3921.96</v>
       </c>
       <c r="H136" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I136">
         <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>13</v>
-      </c>
-      <c r="K136" s="1">
-        <v>3884.77</v>
+        <v>9</v>
+      </c>
+      <c r="K136">
+        <v>3931.09</v>
       </c>
       <c r="L136" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B137" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C137">
         <v>2</v>
@@ -7330,36 +7326,36 @@
         <v>1</v>
       </c>
       <c r="E137">
-        <v>9.1199999999999992</v>
+        <v>52.25</v>
       </c>
       <c r="F137" t="s">
-        <v>13</v>
-      </c>
-      <c r="G137" s="1">
-        <v>3918.82</v>
+        <v>9</v>
+      </c>
+      <c r="G137">
+        <v>3832.53</v>
       </c>
       <c r="H137" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I137">
         <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>13</v>
-      </c>
-      <c r="K137" s="1">
-        <v>3927.94</v>
+        <v>9</v>
+      </c>
+      <c r="K137">
+        <v>3884.77</v>
       </c>
       <c r="L137" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B138" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C138">
         <v>2</v>
@@ -7368,112 +7364,112 @@
         <v>1</v>
       </c>
       <c r="E138">
-        <v>52.25</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="F138" t="s">
-        <v>13</v>
-      </c>
-      <c r="G138" s="1">
-        <v>3886.12</v>
+        <v>9</v>
+      </c>
+      <c r="G138">
+        <v>3918.82</v>
       </c>
       <c r="H138" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I138">
         <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>13</v>
-      </c>
-      <c r="K138" s="1">
-        <v>3938.37</v>
+        <v>9</v>
+      </c>
+      <c r="K138">
+        <v>3927.94</v>
       </c>
       <c r="L138" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B139" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C139">
         <v>2</v>
       </c>
       <c r="D139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E139">
-        <v>61.37</v>
+        <v>52.25</v>
       </c>
       <c r="F139" t="s">
-        <v>13</v>
-      </c>
-      <c r="G139" s="1">
-        <v>3875.99</v>
+        <v>9</v>
+      </c>
+      <c r="G139">
+        <v>3886.12</v>
       </c>
       <c r="H139" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I139">
         <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>13</v>
-      </c>
-      <c r="K139" s="1">
-        <v>3937.36</v>
+        <v>9</v>
+      </c>
+      <c r="K139">
+        <v>3938.37</v>
       </c>
       <c r="L139" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B140" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C140">
         <v>2</v>
       </c>
       <c r="D140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E140">
-        <v>52.25</v>
+        <v>61.37</v>
       </c>
       <c r="F140" t="s">
-        <v>13</v>
-      </c>
-      <c r="G140" s="1">
-        <v>3884.76</v>
+        <v>9</v>
+      </c>
+      <c r="G140">
+        <v>3875.99</v>
       </c>
       <c r="H140" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I140">
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>13</v>
-      </c>
-      <c r="K140" s="1">
-        <v>3937.01</v>
+        <v>9</v>
+      </c>
+      <c r="K140">
+        <v>3937.36</v>
       </c>
       <c r="L140" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B141" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C141">
         <v>2</v>
@@ -7482,74 +7478,74 @@
         <v>1</v>
       </c>
       <c r="E141">
-        <v>9.1199999999999992</v>
+        <v>52.25</v>
       </c>
       <c r="F141" t="s">
-        <v>13</v>
-      </c>
-      <c r="G141" s="1">
-        <v>3919.4</v>
+        <v>9</v>
+      </c>
+      <c r="G141">
+        <v>3884.76</v>
       </c>
       <c r="H141" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I141">
         <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>13</v>
-      </c>
-      <c r="K141" s="1">
-        <v>3928.52</v>
+        <v>9</v>
+      </c>
+      <c r="K141">
+        <v>3937.01</v>
       </c>
       <c r="L141" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B142" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C142">
         <v>2</v>
       </c>
       <c r="D142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E142">
-        <v>61.37</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="F142" t="s">
-        <v>13</v>
-      </c>
-      <c r="G142" s="1">
-        <v>3814.24</v>
+        <v>9</v>
+      </c>
+      <c r="G142">
+        <v>3919.4</v>
       </c>
       <c r="H142" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I142">
         <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>13</v>
-      </c>
-      <c r="K142" s="1">
-        <v>3875.61</v>
+        <v>9</v>
+      </c>
+      <c r="K142">
+        <v>3928.52</v>
       </c>
       <c r="L142" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B143" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C143">
         <v>2</v>
@@ -7561,71 +7557,71 @@
         <v>61.37</v>
       </c>
       <c r="F143" t="s">
-        <v>13</v>
-      </c>
-      <c r="G143" s="1">
-        <v>3814.72</v>
+        <v>9</v>
+      </c>
+      <c r="G143">
+        <v>3814.24</v>
       </c>
       <c r="H143" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I143">
         <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>13</v>
-      </c>
-      <c r="K143" s="1">
-        <v>3876.09</v>
+        <v>9</v>
+      </c>
+      <c r="K143">
+        <v>3875.61</v>
       </c>
       <c r="L143" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B144" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C144">
         <v>2</v>
       </c>
       <c r="D144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E144">
-        <v>9.1199999999999992</v>
+        <v>61.37</v>
       </c>
       <c r="F144" t="s">
-        <v>13</v>
-      </c>
-      <c r="G144" s="1">
-        <v>3918.78</v>
+        <v>9</v>
+      </c>
+      <c r="G144">
+        <v>3814.72</v>
       </c>
       <c r="H144" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I144">
         <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>13</v>
-      </c>
-      <c r="K144" s="1">
-        <v>3927.9</v>
+        <v>9</v>
+      </c>
+      <c r="K144">
+        <v>3876.09</v>
       </c>
       <c r="L144" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B145" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C145">
         <v>2</v>
@@ -7634,36 +7630,36 @@
         <v>1</v>
       </c>
       <c r="E145">
-        <v>52.25</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="F145" t="s">
-        <v>13</v>
-      </c>
-      <c r="G145" s="1">
-        <v>3832.64</v>
+        <v>9</v>
+      </c>
+      <c r="G145">
+        <v>3918.78</v>
       </c>
       <c r="H145" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I145">
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>13</v>
-      </c>
-      <c r="K145" s="1">
-        <v>3884.89</v>
+        <v>9</v>
+      </c>
+      <c r="K145">
+        <v>3927.9</v>
       </c>
       <c r="L145" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B146" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C146">
         <v>2</v>
@@ -7675,33 +7671,33 @@
         <v>52.25</v>
       </c>
       <c r="F146" t="s">
-        <v>13</v>
-      </c>
-      <c r="G146" s="1">
-        <v>3832.03</v>
+        <v>9</v>
+      </c>
+      <c r="G146">
+        <v>3832.64</v>
       </c>
       <c r="H146" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I146">
         <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>13</v>
-      </c>
-      <c r="K146" s="1">
-        <v>3884.28</v>
+        <v>9</v>
+      </c>
+      <c r="K146">
+        <v>3884.89</v>
       </c>
       <c r="L146" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B147" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C147">
         <v>2</v>
@@ -7710,36 +7706,36 @@
         <v>1</v>
       </c>
       <c r="E147">
-        <v>9.1199999999999992</v>
+        <v>52.25</v>
       </c>
       <c r="F147" t="s">
-        <v>13</v>
-      </c>
-      <c r="G147" s="1">
-        <v>3919.64</v>
+        <v>9</v>
+      </c>
+      <c r="G147">
+        <v>3832.03</v>
       </c>
       <c r="H147" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I147">
         <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>13</v>
-      </c>
-      <c r="K147" s="1">
-        <v>3928.77</v>
+        <v>9</v>
+      </c>
+      <c r="K147">
+        <v>3884.28</v>
       </c>
       <c r="L147" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B148" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C148">
         <v>2</v>
@@ -7748,36 +7744,36 @@
         <v>1</v>
       </c>
       <c r="E148">
-        <v>52.25</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="F148" t="s">
-        <v>13</v>
-      </c>
-      <c r="G148" s="1">
-        <v>3832.22</v>
+        <v>9</v>
+      </c>
+      <c r="G148">
+        <v>3919.64</v>
       </c>
       <c r="H148" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I148">
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>13</v>
-      </c>
-      <c r="K148" s="1">
-        <v>3884.46</v>
+        <v>9</v>
+      </c>
+      <c r="K148">
+        <v>3928.77</v>
       </c>
       <c r="L148" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B149" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C149">
         <v>2</v>
@@ -7789,33 +7785,33 @@
         <v>52.25</v>
       </c>
       <c r="F149" t="s">
-        <v>13</v>
-      </c>
-      <c r="G149" s="1">
-        <v>3833.89</v>
+        <v>9</v>
+      </c>
+      <c r="G149">
+        <v>3832.22</v>
       </c>
       <c r="H149" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I149">
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>13</v>
-      </c>
-      <c r="K149" s="1">
-        <v>3886.13</v>
+        <v>9</v>
+      </c>
+      <c r="K149">
+        <v>3884.46</v>
       </c>
       <c r="L149" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B150" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C150">
         <v>2</v>
@@ -7827,33 +7823,33 @@
         <v>52.25</v>
       </c>
       <c r="F150" t="s">
-        <v>13</v>
-      </c>
-      <c r="G150" s="1">
-        <v>3832.8</v>
+        <v>9</v>
+      </c>
+      <c r="G150">
+        <v>3833.89</v>
       </c>
       <c r="H150" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I150">
         <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>13</v>
-      </c>
-      <c r="K150" s="1">
-        <v>3885.05</v>
+        <v>9</v>
+      </c>
+      <c r="K150">
+        <v>3886.13</v>
       </c>
       <c r="L150" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B151" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C151">
         <v>2</v>
@@ -7862,36 +7858,36 @@
         <v>1</v>
       </c>
       <c r="E151">
-        <v>9.1199999999999992</v>
+        <v>52.25</v>
       </c>
       <c r="F151" t="s">
-        <v>13</v>
-      </c>
-      <c r="G151" s="1">
-        <v>3918.82</v>
+        <v>9</v>
+      </c>
+      <c r="G151">
+        <v>3833.07</v>
       </c>
       <c r="H151" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I151">
         <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>13</v>
-      </c>
-      <c r="K151" s="1">
-        <v>3927.95</v>
+        <v>9</v>
+      </c>
+      <c r="K151">
+        <v>3885.31</v>
       </c>
       <c r="L151" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B152" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C152">
         <v>2</v>
@@ -7900,36 +7896,36 @@
         <v>1</v>
       </c>
       <c r="E152">
-        <v>52.25</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="F152" t="s">
-        <v>13</v>
-      </c>
-      <c r="G152" s="1">
-        <v>3832.02</v>
+        <v>9</v>
+      </c>
+      <c r="G152">
+        <v>3916.34</v>
       </c>
       <c r="H152" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I152">
         <v>0</v>
       </c>
       <c r="J152" t="s">
-        <v>13</v>
-      </c>
-      <c r="K152" s="1">
-        <v>3884.27</v>
+        <v>9</v>
+      </c>
+      <c r="K152">
+        <v>3925.46</v>
       </c>
       <c r="L152" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B153" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C153">
         <v>2</v>
@@ -7938,36 +7934,36 @@
         <v>1</v>
       </c>
       <c r="E153">
-        <v>9.1199999999999992</v>
+        <v>52.25</v>
       </c>
       <c r="F153" t="s">
-        <v>13</v>
-      </c>
-      <c r="G153" s="1">
-        <v>3921.01</v>
+        <v>9</v>
+      </c>
+      <c r="G153">
+        <v>3832.02</v>
       </c>
       <c r="H153" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I153">
         <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>13</v>
-      </c>
-      <c r="K153" s="1">
-        <v>3930.13</v>
+        <v>9</v>
+      </c>
+      <c r="K153">
+        <v>3884.27</v>
       </c>
       <c r="L153" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B154" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C154">
         <v>2</v>
@@ -7976,36 +7972,36 @@
         <v>1</v>
       </c>
       <c r="E154">
-        <v>52.25</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="F154" t="s">
-        <v>13</v>
-      </c>
-      <c r="G154" s="1">
-        <v>3831.41</v>
+        <v>9</v>
+      </c>
+      <c r="G154">
+        <v>3921.01</v>
       </c>
       <c r="H154" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I154">
         <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>13</v>
-      </c>
-      <c r="K154" s="1">
-        <v>3883.66</v>
+        <v>9</v>
+      </c>
+      <c r="K154">
+        <v>3930.13</v>
       </c>
       <c r="L154" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B155" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C155">
         <v>2</v>
@@ -8017,33 +8013,33 @@
         <v>52.25</v>
       </c>
       <c r="F155" t="s">
-        <v>13</v>
-      </c>
-      <c r="G155" s="1">
-        <v>3833.37</v>
+        <v>9</v>
+      </c>
+      <c r="G155">
+        <v>3831.41</v>
       </c>
       <c r="H155" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I155">
         <v>0</v>
       </c>
       <c r="J155" t="s">
-        <v>13</v>
-      </c>
-      <c r="K155" s="1">
-        <v>3885.62</v>
+        <v>9</v>
+      </c>
+      <c r="K155">
+        <v>3883.66</v>
       </c>
       <c r="L155" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B156" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C156">
         <v>2</v>
@@ -8052,36 +8048,36 @@
         <v>1</v>
       </c>
       <c r="E156">
-        <v>9.1199999999999992</v>
+        <v>52.25</v>
       </c>
       <c r="F156" t="s">
-        <v>13</v>
-      </c>
-      <c r="G156" s="1">
-        <v>3917.14</v>
+        <v>9</v>
+      </c>
+      <c r="G156">
+        <v>3833.37</v>
       </c>
       <c r="H156" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I156">
         <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>13</v>
-      </c>
-      <c r="K156" s="1">
-        <v>3926.26</v>
+        <v>9</v>
+      </c>
+      <c r="K156">
+        <v>3885.62</v>
       </c>
       <c r="L156" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B157" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C157">
         <v>2</v>
@@ -8090,36 +8086,36 @@
         <v>1</v>
       </c>
       <c r="E157">
-        <v>52.25</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="F157" t="s">
-        <v>13</v>
-      </c>
-      <c r="G157" s="1">
-        <v>3886.71</v>
+        <v>9</v>
+      </c>
+      <c r="G157">
+        <v>3917.14</v>
       </c>
       <c r="H157" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I157">
         <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>13</v>
-      </c>
-      <c r="K157" s="1">
-        <v>3938.96</v>
+        <v>9</v>
+      </c>
+      <c r="K157">
+        <v>3926.26</v>
       </c>
       <c r="L157" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B158" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C158">
         <v>2</v>
@@ -8128,36 +8124,36 @@
         <v>1</v>
       </c>
       <c r="E158">
-        <v>9.1199999999999992</v>
+        <v>52.25</v>
       </c>
       <c r="F158" t="s">
-        <v>13</v>
-      </c>
-      <c r="G158" s="1">
-        <v>3918.77</v>
+        <v>9</v>
+      </c>
+      <c r="G158">
+        <v>3886.71</v>
       </c>
       <c r="H158" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I158">
         <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>13</v>
-      </c>
-      <c r="K158" s="1">
-        <v>3927.9</v>
+        <v>9</v>
+      </c>
+      <c r="K158">
+        <v>3938.96</v>
       </c>
       <c r="L158" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B159" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C159">
         <v>2</v>
@@ -8166,36 +8162,36 @@
         <v>1</v>
       </c>
       <c r="E159">
-        <v>52.25</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="F159" t="s">
-        <v>13</v>
-      </c>
-      <c r="G159" s="1">
-        <v>3833.37</v>
+        <v>9</v>
+      </c>
+      <c r="G159">
+        <v>3918.77</v>
       </c>
       <c r="H159" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I159">
         <v>0</v>
       </c>
       <c r="J159" t="s">
-        <v>13</v>
-      </c>
-      <c r="K159" s="1">
-        <v>3885.62</v>
+        <v>9</v>
+      </c>
+      <c r="K159">
+        <v>3927.9</v>
       </c>
       <c r="L159" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B160" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C160">
         <v>2</v>
@@ -8207,33 +8203,33 @@
         <v>52.25</v>
       </c>
       <c r="F160" t="s">
-        <v>13</v>
-      </c>
-      <c r="G160" s="1">
-        <v>3832.82</v>
+        <v>9</v>
+      </c>
+      <c r="G160">
+        <v>3833.37</v>
       </c>
       <c r="H160" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I160">
         <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>13</v>
-      </c>
-      <c r="K160" s="1">
-        <v>3885.07</v>
+        <v>9</v>
+      </c>
+      <c r="K160">
+        <v>3885.62</v>
       </c>
       <c r="L160" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B161" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C161">
         <v>2</v>
@@ -8245,33 +8241,33 @@
         <v>52.25</v>
       </c>
       <c r="F161" t="s">
-        <v>13</v>
-      </c>
-      <c r="G161" s="1">
-        <v>3832.69</v>
+        <v>9</v>
+      </c>
+      <c r="G161">
+        <v>3832.82</v>
       </c>
       <c r="H161" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I161">
         <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>13</v>
-      </c>
-      <c r="K161" s="1">
-        <v>3884.94</v>
+        <v>9</v>
+      </c>
+      <c r="K161">
+        <v>3885.07</v>
       </c>
       <c r="L161" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B162" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C162">
         <v>2</v>
@@ -8280,36 +8276,36 @@
         <v>1</v>
       </c>
       <c r="E162">
-        <v>9.1199999999999992</v>
+        <v>52.25</v>
       </c>
       <c r="F162" t="s">
-        <v>13</v>
-      </c>
-      <c r="G162" s="1">
-        <v>3928.63</v>
+        <v>9</v>
+      </c>
+      <c r="G162">
+        <v>3832.69</v>
       </c>
       <c r="H162" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I162">
         <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>13</v>
-      </c>
-      <c r="K162" s="1">
-        <v>3937.75</v>
+        <v>9</v>
+      </c>
+      <c r="K162">
+        <v>3884.94</v>
       </c>
       <c r="L162" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B163" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C163">
         <v>2</v>
@@ -8321,33 +8317,33 @@
         <v>9.1199999999999992</v>
       </c>
       <c r="F163" t="s">
-        <v>13</v>
-      </c>
-      <c r="G163" s="1">
-        <v>3918.85</v>
+        <v>9</v>
+      </c>
+      <c r="G163">
+        <v>3928.63</v>
       </c>
       <c r="H163" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I163">
         <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>13</v>
-      </c>
-      <c r="K163" s="1">
-        <v>3927.97</v>
+        <v>9</v>
+      </c>
+      <c r="K163">
+        <v>3937.75</v>
       </c>
       <c r="L163" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B164" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C164">
         <v>2</v>
@@ -8356,36 +8352,36 @@
         <v>1</v>
       </c>
       <c r="E164">
-        <v>52.25</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="F164" t="s">
-        <v>13</v>
-      </c>
-      <c r="G164" s="1">
-        <v>3834.39</v>
+        <v>9</v>
+      </c>
+      <c r="G164">
+        <v>3918.85</v>
       </c>
       <c r="H164" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I164">
         <v>0</v>
       </c>
       <c r="J164" t="s">
-        <v>13</v>
-      </c>
-      <c r="K164" s="1">
-        <v>3886.64</v>
+        <v>9</v>
+      </c>
+      <c r="K164">
+        <v>3927.97</v>
       </c>
       <c r="L164" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B165" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C165">
         <v>2</v>
@@ -8394,36 +8390,36 @@
         <v>1</v>
       </c>
       <c r="E165">
-        <v>9.1199999999999992</v>
+        <v>52.25</v>
       </c>
       <c r="F165" t="s">
-        <v>13</v>
-      </c>
-      <c r="G165" s="1">
-        <v>3918.79</v>
+        <v>9</v>
+      </c>
+      <c r="G165">
+        <v>3832.91</v>
       </c>
       <c r="H165" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I165">
         <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>13</v>
-      </c>
-      <c r="K165" s="1">
-        <v>3927.92</v>
+        <v>9</v>
+      </c>
+      <c r="K165">
+        <v>3885.15</v>
       </c>
       <c r="L165" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B166" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C166">
         <v>2</v>
@@ -8432,36 +8428,36 @@
         <v>1</v>
       </c>
       <c r="E166">
-        <v>52.25</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="F166" t="s">
-        <v>13</v>
-      </c>
-      <c r="G166" s="1">
-        <v>3832.57</v>
+        <v>9</v>
+      </c>
+      <c r="G166">
+        <v>3918.79</v>
       </c>
       <c r="H166" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I166">
         <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>13</v>
-      </c>
-      <c r="K166" s="1">
-        <v>3884.82</v>
+        <v>9</v>
+      </c>
+      <c r="K166">
+        <v>3927.92</v>
       </c>
       <c r="L166" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B167" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C167">
         <v>2</v>
@@ -8470,36 +8466,36 @@
         <v>1</v>
       </c>
       <c r="E167">
-        <v>9.1199999999999992</v>
+        <v>52.25</v>
       </c>
       <c r="F167" t="s">
-        <v>13</v>
-      </c>
-      <c r="G167" s="1">
-        <v>3918.78</v>
+        <v>9</v>
+      </c>
+      <c r="G167">
+        <v>3832.57</v>
       </c>
       <c r="H167" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I167">
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>13</v>
-      </c>
-      <c r="K167" s="1">
-        <v>3927.9</v>
+        <v>9</v>
+      </c>
+      <c r="K167">
+        <v>3884.82</v>
       </c>
       <c r="L167" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B168" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C168">
         <v>2</v>
@@ -8508,36 +8504,36 @@
         <v>1</v>
       </c>
       <c r="E168">
-        <v>52.25</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="F168" t="s">
-        <v>13</v>
-      </c>
-      <c r="G168" s="1">
-        <v>3834.2</v>
+        <v>9</v>
+      </c>
+      <c r="G168">
+        <v>3918.78</v>
       </c>
       <c r="H168" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I168">
         <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>13</v>
-      </c>
-      <c r="K168" s="1">
-        <v>3886.45</v>
+        <v>9</v>
+      </c>
+      <c r="K168">
+        <v>3927.9</v>
       </c>
       <c r="L168" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B169" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C169">
         <v>2</v>
@@ -8549,33 +8545,33 @@
         <v>52.25</v>
       </c>
       <c r="F169" t="s">
-        <v>13</v>
-      </c>
-      <c r="G169" s="1">
-        <v>3832.56</v>
+        <v>9</v>
+      </c>
+      <c r="G169">
+        <v>3834.2</v>
       </c>
       <c r="H169" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I169">
         <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>13</v>
-      </c>
-      <c r="K169" s="1">
-        <v>3884.81</v>
+        <v>9</v>
+      </c>
+      <c r="K169">
+        <v>3886.45</v>
       </c>
       <c r="L169" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B170" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C170">
         <v>2</v>
@@ -8587,109 +8583,109 @@
         <v>52.25</v>
       </c>
       <c r="F170" t="s">
-        <v>13</v>
-      </c>
-      <c r="G170" s="1">
-        <v>3861.77</v>
+        <v>9</v>
+      </c>
+      <c r="G170">
+        <v>3832.56</v>
       </c>
       <c r="H170" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I170">
         <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>13</v>
-      </c>
-      <c r="K170" s="1">
-        <v>3914.02</v>
+        <v>9</v>
+      </c>
+      <c r="K170">
+        <v>3884.81</v>
       </c>
       <c r="L170" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B171" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C171">
         <v>2</v>
       </c>
       <c r="D171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E171">
-        <v>61.37</v>
+        <v>52.25</v>
       </c>
       <c r="F171" t="s">
-        <v>13</v>
-      </c>
-      <c r="G171" s="1">
-        <v>3813.94</v>
+        <v>9</v>
+      </c>
+      <c r="G171">
+        <v>3861.77</v>
       </c>
       <c r="H171" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I171">
         <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>13</v>
-      </c>
-      <c r="K171" s="1">
-        <v>3875.31</v>
+        <v>9</v>
+      </c>
+      <c r="K171">
+        <v>3914.02</v>
       </c>
       <c r="L171" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B172" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C172">
         <v>2</v>
       </c>
       <c r="D172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E172">
-        <v>9.1199999999999992</v>
+        <v>61.37</v>
       </c>
       <c r="F172" t="s">
-        <v>13</v>
-      </c>
-      <c r="G172" s="1">
-        <v>3919.58</v>
+        <v>9</v>
+      </c>
+      <c r="G172">
+        <v>3813.94</v>
       </c>
       <c r="H172" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I172">
         <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>13</v>
-      </c>
-      <c r="K172" s="1">
-        <v>3928.7</v>
+        <v>9</v>
+      </c>
+      <c r="K172">
+        <v>3875.31</v>
       </c>
       <c r="L172" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B173" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C173">
         <v>2</v>
@@ -8698,36 +8694,36 @@
         <v>1</v>
       </c>
       <c r="E173">
-        <v>52.25</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="F173" t="s">
-        <v>13</v>
-      </c>
-      <c r="G173" s="1">
-        <v>3835.44</v>
+        <v>9</v>
+      </c>
+      <c r="G173">
+        <v>3919.58</v>
       </c>
       <c r="H173" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I173">
         <v>0</v>
       </c>
       <c r="J173" t="s">
-        <v>13</v>
-      </c>
-      <c r="K173" s="1">
-        <v>3887.69</v>
+        <v>9</v>
+      </c>
+      <c r="K173">
+        <v>3928.7</v>
       </c>
       <c r="L173" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B174" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C174">
         <v>2</v>
@@ -8736,36 +8732,36 @@
         <v>1</v>
       </c>
       <c r="E174">
-        <v>9.1199999999999992</v>
+        <v>52.25</v>
       </c>
       <c r="F174" t="s">
-        <v>13</v>
-      </c>
-      <c r="G174" s="1">
-        <v>3918.74</v>
+        <v>9</v>
+      </c>
+      <c r="G174">
+        <v>3884.76</v>
       </c>
       <c r="H174" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I174">
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>13</v>
-      </c>
-      <c r="K174" s="1">
-        <v>3927.86</v>
+        <v>9</v>
+      </c>
+      <c r="K174">
+        <v>3937</v>
       </c>
       <c r="L174" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B175" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C175">
         <v>2</v>
@@ -8774,36 +8770,36 @@
         <v>1</v>
       </c>
       <c r="E175">
-        <v>52.25</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="F175" t="s">
-        <v>13</v>
-      </c>
-      <c r="G175" s="1">
-        <v>3832.57</v>
+        <v>9</v>
+      </c>
+      <c r="G175">
+        <v>3918.74</v>
       </c>
       <c r="H175" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I175">
         <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>13</v>
-      </c>
-      <c r="K175" s="1">
-        <v>3884.82</v>
+        <v>9</v>
+      </c>
+      <c r="K175">
+        <v>3927.86</v>
       </c>
       <c r="L175" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B176" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C176">
         <v>2</v>
@@ -8815,33 +8811,33 @@
         <v>52.25</v>
       </c>
       <c r="F176" t="s">
-        <v>13</v>
-      </c>
-      <c r="G176" s="1">
-        <v>3832.54</v>
+        <v>9</v>
+      </c>
+      <c r="G176">
+        <v>3832.57</v>
       </c>
       <c r="H176" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I176">
         <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>13</v>
-      </c>
-      <c r="K176" s="1">
-        <v>3884.79</v>
+        <v>9</v>
+      </c>
+      <c r="K176">
+        <v>3884.82</v>
       </c>
       <c r="L176" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B177" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C177">
         <v>2</v>
@@ -8850,66 +8846,142 @@
         <v>1</v>
       </c>
       <c r="E177">
-        <v>61.37</v>
+        <v>52.25</v>
       </c>
       <c r="F177" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G177">
-        <v>1811.49</v>
+        <v>3832.54</v>
       </c>
       <c r="H177" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I177">
         <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K177">
-        <v>1872.86</v>
+        <v>3884.79</v>
       </c>
       <c r="L177" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178">
+        <v>433</v>
+      </c>
+      <c r="B178" t="s">
+        <v>185</v>
+      </c>
+      <c r="C178">
+        <v>2</v>
+      </c>
+      <c r="D178">
+        <v>1</v>
+      </c>
+      <c r="E178">
+        <v>61.37</v>
+      </c>
+      <c r="F178" t="s">
+        <v>9</v>
+      </c>
+      <c r="G178">
+        <v>1811.49</v>
+      </c>
+      <c r="H178" t="s">
+        <v>9</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178" t="s">
+        <v>9</v>
+      </c>
+      <c r="K178">
+        <v>1872.86</v>
+      </c>
+      <c r="L178" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A179">
         <v>458</v>
       </c>
-      <c r="B178" t="s">
-        <v>189</v>
-      </c>
-      <c r="C178">
-        <v>2</v>
-      </c>
-      <c r="D178">
-        <v>1</v>
-      </c>
-      <c r="E178">
+      <c r="B179" t="s">
+        <v>186</v>
+      </c>
+      <c r="C179">
+        <v>2</v>
+      </c>
+      <c r="D179">
+        <v>1</v>
+      </c>
+      <c r="E179">
         <v>52.25</v>
       </c>
-      <c r="F178" t="s">
-        <v>13</v>
-      </c>
-      <c r="G178" s="1">
+      <c r="F179" t="s">
+        <v>9</v>
+      </c>
+      <c r="G179">
         <v>3832.51</v>
       </c>
-      <c r="H178" t="s">
-        <v>13</v>
-      </c>
-      <c r="I178">
-        <v>0</v>
-      </c>
-      <c r="J178" t="s">
-        <v>13</v>
-      </c>
-      <c r="K178" s="1">
+      <c r="H179" t="s">
+        <v>9</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179" t="s">
+        <v>9</v>
+      </c>
+      <c r="K179">
         <v>3884.76</v>
       </c>
-      <c r="L178" t="s">
-        <v>13</v>
+      <c r="L179" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>464</v>
+      </c>
+      <c r="B180" t="s">
+        <v>187</v>
+      </c>
+      <c r="C180">
+        <v>9</v>
+      </c>
+      <c r="D180">
+        <v>6</v>
+      </c>
+      <c r="E180">
+        <v>368.22</v>
+      </c>
+      <c r="F180" t="s">
+        <v>9</v>
+      </c>
+      <c r="G180">
+        <v>5972.28</v>
+      </c>
+      <c r="H180" t="s">
+        <v>9</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180" t="s">
+        <v>9</v>
+      </c>
+      <c r="K180">
+        <v>6340.5</v>
+      </c>
+      <c r="L180" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
